--- a/Results/9NLTHA_FINAL_V2.xlsx
+++ b/Results/9NLTHA_FINAL_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GML\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8154CB4-7333-4725-9A67-3071BB36103E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A156CA24-420F-4665-B8D8-068F13F63624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A793" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E865"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2">
@@ -665,7 +665,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3">
@@ -706,7 +706,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4">
@@ -747,7 +747,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5">
@@ -788,7 +788,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6">
@@ -829,7 +829,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7">
@@ -870,7 +870,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8">
@@ -911,7 +911,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9">
@@ -952,7 +952,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10">
@@ -993,7 +993,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11">
@@ -1034,7 +1034,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12">
@@ -1075,7 +1075,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>1</v>
       </c>
       <c r="C13">
@@ -1116,7 +1116,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14">
@@ -1157,7 +1157,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
       <c r="C15">
@@ -1198,7 +1198,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
       <c r="C16">
@@ -1239,7 +1239,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>1</v>
       </c>
       <c r="C17">
@@ -1280,7 +1280,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18">
@@ -1321,7 +1321,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19">
@@ -1362,7 +1362,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>1</v>
       </c>
       <c r="C20">
@@ -1403,7 +1403,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
       <c r="C21">
@@ -1444,7 +1444,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22">
@@ -1485,7 +1485,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>1</v>
       </c>
       <c r="C23">
@@ -1526,7 +1526,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24">
@@ -1567,7 +1567,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>1</v>
       </c>
       <c r="C25">
@@ -1608,7 +1608,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>1</v>
       </c>
       <c r="C26">
@@ -1649,7 +1649,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>1</v>
       </c>
       <c r="C27">
@@ -1690,7 +1690,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28">
@@ -1731,7 +1731,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>1</v>
       </c>
       <c r="C29">
@@ -1772,7 +1772,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30">
@@ -1813,7 +1813,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>1</v>
       </c>
       <c r="C31">
@@ -1854,7 +1854,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32">
@@ -1895,7 +1895,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>1</v>
       </c>
       <c r="C33">
@@ -1936,7 +1936,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>1</v>
       </c>
       <c r="C34">
@@ -1977,7 +1977,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>1</v>
       </c>
       <c r="C35">
@@ -2018,7 +2018,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>1</v>
       </c>
       <c r="C36">
@@ -2059,8 +2059,8 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" s="4">
+        <v>1</v>
       </c>
       <c r="C37">
         <v>25</v>
@@ -2100,8 +2100,8 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>1</v>
+      <c r="B38" s="4">
+        <v>0</v>
       </c>
       <c r="C38">
         <v>20</v>
@@ -2141,7 +2141,7 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>1</v>
       </c>
       <c r="C39">
@@ -2182,7 +2182,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>0</v>
       </c>
       <c r="C40">
@@ -2223,7 +2223,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>1</v>
       </c>
       <c r="C41">
@@ -2264,7 +2264,7 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>0</v>
       </c>
       <c r="C42">
@@ -2305,7 +2305,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>0</v>
       </c>
       <c r="C43">
@@ -2346,7 +2346,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>1</v>
       </c>
       <c r="C44">
@@ -2387,7 +2387,7 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>0</v>
       </c>
       <c r="C45">
@@ -2428,7 +2428,7 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>0</v>
       </c>
       <c r="C46">
@@ -2469,7 +2469,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>0</v>
       </c>
       <c r="C47">
@@ -2510,7 +2510,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>0</v>
       </c>
       <c r="C48">
@@ -2551,7 +2551,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>0</v>
       </c>
       <c r="C49">
@@ -2592,8 +2592,8 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>1</v>
+      <c r="B50" s="4">
+        <v>0</v>
       </c>
       <c r="C50">
         <v>15</v>
@@ -2633,7 +2633,7 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>0</v>
       </c>
       <c r="C51">
@@ -2674,7 +2674,7 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>0</v>
       </c>
       <c r="C52">
@@ -2715,7 +2715,7 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>0</v>
       </c>
       <c r="C53">
@@ -2756,7 +2756,7 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>0</v>
       </c>
       <c r="C54">
@@ -2797,7 +2797,7 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>0</v>
       </c>
       <c r="C55">
@@ -2838,7 +2838,7 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>0</v>
       </c>
       <c r="C56">
@@ -2879,7 +2879,7 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>0</v>
       </c>
       <c r="C57">
@@ -2920,7 +2920,7 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>0</v>
       </c>
       <c r="C58">
@@ -2961,7 +2961,7 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>0</v>
       </c>
       <c r="C59">
@@ -3002,7 +3002,7 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>0</v>
       </c>
       <c r="C60">
@@ -3043,7 +3043,7 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>0</v>
       </c>
       <c r="C61">
@@ -3084,7 +3084,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>0</v>
       </c>
       <c r="C62">
@@ -3125,7 +3125,7 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>0</v>
       </c>
       <c r="C63">
@@ -3166,7 +3166,7 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>0</v>
       </c>
       <c r="C64">
@@ -3207,7 +3207,7 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>0</v>
       </c>
       <c r="C65">
@@ -3248,7 +3248,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>0</v>
       </c>
       <c r="C66">
@@ -3289,7 +3289,7 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>0</v>
       </c>
       <c r="C67">
@@ -3330,7 +3330,7 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>0</v>
       </c>
       <c r="C68">
@@ -3371,7 +3371,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>0</v>
       </c>
       <c r="C69">
@@ -3412,7 +3412,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>0</v>
       </c>
       <c r="C70">
@@ -3453,7 +3453,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>0</v>
       </c>
       <c r="C71">
@@ -3494,7 +3494,7 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>0</v>
       </c>
       <c r="C72">
@@ -3535,7 +3535,7 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>0</v>
       </c>
       <c r="C73">
@@ -3576,7 +3576,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>1</v>
       </c>
       <c r="C74">
@@ -3617,7 +3617,7 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>1</v>
       </c>
       <c r="C75">
@@ -3658,7 +3658,7 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>1</v>
       </c>
       <c r="C76">
@@ -3699,7 +3699,7 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>1</v>
       </c>
       <c r="C77">
@@ -3740,7 +3740,7 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>1</v>
       </c>
       <c r="C78">
@@ -3781,7 +3781,7 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>1</v>
       </c>
       <c r="C79">
@@ -3822,7 +3822,7 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>1</v>
       </c>
       <c r="C80">
@@ -3863,7 +3863,7 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>1</v>
       </c>
       <c r="C81">
@@ -3904,7 +3904,7 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>1</v>
       </c>
       <c r="C82">
@@ -3945,7 +3945,7 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>1</v>
       </c>
       <c r="C83">
@@ -3986,7 +3986,7 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>1</v>
       </c>
       <c r="C84">
@@ -4027,7 +4027,7 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>1</v>
       </c>
       <c r="C85">
@@ -4068,7 +4068,7 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>1</v>
       </c>
       <c r="C86">
@@ -4109,7 +4109,7 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>1</v>
       </c>
       <c r="C87">
@@ -4150,7 +4150,7 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>1</v>
       </c>
       <c r="C88">
@@ -4191,7 +4191,7 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>1</v>
       </c>
       <c r="C89">
@@ -4232,7 +4232,7 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>1</v>
       </c>
       <c r="C90">
@@ -4273,7 +4273,7 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>1</v>
       </c>
       <c r="C91">
@@ -4314,7 +4314,7 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>1</v>
       </c>
       <c r="C92">
@@ -4355,7 +4355,7 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>1</v>
       </c>
       <c r="C93">
@@ -4396,7 +4396,7 @@
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>1</v>
       </c>
       <c r="C94">
@@ -4437,7 +4437,7 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>1</v>
       </c>
       <c r="C95">
@@ -4478,7 +4478,7 @@
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <v>1</v>
       </c>
       <c r="C96">
@@ -4519,7 +4519,7 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
         <v>1</v>
       </c>
       <c r="C97">
@@ -4560,7 +4560,7 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="4">
         <v>1</v>
       </c>
       <c r="C98">
@@ -4601,7 +4601,7 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>1</v>
       </c>
       <c r="C99">
@@ -4642,7 +4642,7 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
         <v>1</v>
       </c>
       <c r="C100">
@@ -4683,7 +4683,7 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
         <v>1</v>
       </c>
       <c r="C101">
@@ -4724,7 +4724,7 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="4">
         <v>1</v>
       </c>
       <c r="C102">
@@ -4765,7 +4765,7 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <v>1</v>
       </c>
       <c r="C103">
@@ -4806,7 +4806,7 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
         <v>1</v>
       </c>
       <c r="C104">
@@ -4847,7 +4847,7 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
         <v>1</v>
       </c>
       <c r="C105">
@@ -4888,7 +4888,7 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
         <v>1</v>
       </c>
       <c r="C106">
@@ -4929,7 +4929,7 @@
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <v>1</v>
       </c>
       <c r="C107">
@@ -4970,7 +4970,7 @@
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <v>1</v>
       </c>
       <c r="C108">
@@ -5011,7 +5011,7 @@
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <v>1</v>
       </c>
       <c r="C109">
@@ -5052,7 +5052,7 @@
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <v>1</v>
       </c>
       <c r="C110">
@@ -5093,7 +5093,7 @@
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>1</v>
       </c>
       <c r="C111">
@@ -5134,7 +5134,7 @@
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <v>1</v>
       </c>
       <c r="C112">
@@ -5175,7 +5175,7 @@
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>1</v>
       </c>
       <c r="C113">
@@ -5216,7 +5216,7 @@
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>1</v>
       </c>
       <c r="C114">
@@ -5257,7 +5257,7 @@
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>1</v>
       </c>
       <c r="C115">
@@ -5298,7 +5298,7 @@
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>1</v>
       </c>
       <c r="C116">
@@ -5339,7 +5339,7 @@
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>0</v>
       </c>
       <c r="C117">
@@ -5380,7 +5380,7 @@
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>0</v>
       </c>
       <c r="C118">
@@ -5421,7 +5421,7 @@
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>1</v>
       </c>
       <c r="C119">
@@ -5462,7 +5462,7 @@
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
         <v>1</v>
       </c>
       <c r="C120">
@@ -5503,7 +5503,7 @@
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
         <v>1</v>
       </c>
       <c r="C121">
@@ -5544,7 +5544,7 @@
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
         <v>1</v>
       </c>
       <c r="C122">
@@ -5585,7 +5585,7 @@
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="4">
         <v>1</v>
       </c>
       <c r="C123">
@@ -5626,7 +5626,7 @@
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="4">
         <v>1</v>
       </c>
       <c r="C124">
@@ -5667,7 +5667,7 @@
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="4">
         <v>1</v>
       </c>
       <c r="C125">
@@ -5708,7 +5708,7 @@
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="4">
         <v>0</v>
       </c>
       <c r="C126">
@@ -5749,7 +5749,7 @@
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="4">
         <v>0</v>
       </c>
       <c r="C127">
@@ -5790,7 +5790,7 @@
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="4">
         <v>0</v>
       </c>
       <c r="C128">
@@ -5831,7 +5831,7 @@
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="4">
         <v>0</v>
       </c>
       <c r="C129">
@@ -5872,7 +5872,7 @@
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="4">
         <v>0</v>
       </c>
       <c r="C130">
@@ -5913,8 +5913,8 @@
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131">
-        <v>1</v>
+      <c r="B131" s="4">
+        <v>0</v>
       </c>
       <c r="C131">
         <v>10</v>
@@ -5954,7 +5954,7 @@
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="4">
         <v>0</v>
       </c>
       <c r="C132">
@@ -5995,7 +5995,7 @@
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="4">
         <v>0</v>
       </c>
       <c r="C133">
@@ -6036,7 +6036,7 @@
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="4">
         <v>0</v>
       </c>
       <c r="C134">
@@ -6077,7 +6077,7 @@
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="4">
         <v>0</v>
       </c>
       <c r="C135">
@@ -6118,7 +6118,7 @@
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="4">
         <v>0</v>
       </c>
       <c r="C136">
@@ -6159,7 +6159,7 @@
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="4">
         <v>0</v>
       </c>
       <c r="C137">
@@ -6200,7 +6200,7 @@
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="4">
         <v>0</v>
       </c>
       <c r="C138">
@@ -6241,7 +6241,7 @@
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="4">
         <v>0</v>
       </c>
       <c r="C139">
@@ -6282,7 +6282,7 @@
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="4">
         <v>0</v>
       </c>
       <c r="C140">
@@ -6323,7 +6323,7 @@
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="4">
         <v>0</v>
       </c>
       <c r="C141">
@@ -6364,7 +6364,7 @@
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="4">
         <v>0</v>
       </c>
       <c r="C142">
@@ -6405,7 +6405,7 @@
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="4">
         <v>0</v>
       </c>
       <c r="C143">
@@ -6446,7 +6446,7 @@
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="4">
         <v>0</v>
       </c>
       <c r="C144">
@@ -6487,7 +6487,7 @@
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="4">
         <v>0</v>
       </c>
       <c r="C145">
@@ -6528,7 +6528,7 @@
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="4">
         <v>1</v>
       </c>
       <c r="C146">
@@ -6569,7 +6569,7 @@
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="4">
         <v>1</v>
       </c>
       <c r="C147">
@@ -6610,7 +6610,7 @@
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="4">
         <v>1</v>
       </c>
       <c r="C148">
@@ -6651,7 +6651,7 @@
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="4">
         <v>1</v>
       </c>
       <c r="C149">
@@ -6692,7 +6692,7 @@
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="4">
         <v>1</v>
       </c>
       <c r="C150">
@@ -6733,7 +6733,7 @@
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="4">
         <v>1</v>
       </c>
       <c r="C151">
@@ -6774,7 +6774,7 @@
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="4">
         <v>1</v>
       </c>
       <c r="C152">
@@ -6815,7 +6815,7 @@
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="4">
         <v>1</v>
       </c>
       <c r="C153">
@@ -6856,7 +6856,7 @@
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="4">
         <v>1</v>
       </c>
       <c r="C154">
@@ -6897,7 +6897,7 @@
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="4">
         <v>1</v>
       </c>
       <c r="C155">
@@ -6938,7 +6938,7 @@
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="4">
         <v>1</v>
       </c>
       <c r="C156">
@@ -6979,7 +6979,7 @@
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="4">
         <v>1</v>
       </c>
       <c r="C157">
@@ -7020,7 +7020,7 @@
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="4">
         <v>1</v>
       </c>
       <c r="C158">
@@ -7061,7 +7061,7 @@
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="4">
         <v>1</v>
       </c>
       <c r="C159">
@@ -7102,7 +7102,7 @@
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="4">
         <v>1</v>
       </c>
       <c r="C160">
@@ -7143,7 +7143,7 @@
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="4">
         <v>1</v>
       </c>
       <c r="C161">
@@ -7184,7 +7184,7 @@
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="4">
         <v>1</v>
       </c>
       <c r="C162">
@@ -7225,7 +7225,7 @@
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="4">
         <v>1</v>
       </c>
       <c r="C163">
@@ -7266,7 +7266,7 @@
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="4">
         <v>1</v>
       </c>
       <c r="C164">
@@ -7307,7 +7307,7 @@
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="4">
         <v>1</v>
       </c>
       <c r="C165">
@@ -7348,7 +7348,7 @@
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="4">
         <v>1</v>
       </c>
       <c r="C166">
@@ -7389,7 +7389,7 @@
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="4">
         <v>1</v>
       </c>
       <c r="C167">
@@ -7430,7 +7430,7 @@
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="4">
         <v>1</v>
       </c>
       <c r="C168">
@@ -7471,7 +7471,7 @@
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="4">
         <v>1</v>
       </c>
       <c r="C169">
@@ -7512,7 +7512,7 @@
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="4">
         <v>1</v>
       </c>
       <c r="C170">
@@ -7553,7 +7553,7 @@
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="4">
         <v>1</v>
       </c>
       <c r="C171">
@@ -7594,7 +7594,7 @@
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="4">
         <v>1</v>
       </c>
       <c r="C172">
@@ -7635,7 +7635,7 @@
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="4">
         <v>1</v>
       </c>
       <c r="C173">
@@ -7676,7 +7676,7 @@
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="4">
         <v>1</v>
       </c>
       <c r="C174">
@@ -7717,7 +7717,7 @@
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="4">
         <v>1</v>
       </c>
       <c r="C175">
@@ -7758,7 +7758,7 @@
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="4">
         <v>1</v>
       </c>
       <c r="C176">
@@ -7799,7 +7799,7 @@
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="4">
         <v>1</v>
       </c>
       <c r="C177">
@@ -7840,7 +7840,7 @@
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="4">
         <v>1</v>
       </c>
       <c r="C178">
@@ -7881,7 +7881,7 @@
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="4">
         <v>1</v>
       </c>
       <c r="C179">
@@ -7922,7 +7922,7 @@
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="4">
         <v>1</v>
       </c>
       <c r="C180">
@@ -7963,7 +7963,7 @@
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="4">
         <v>1</v>
       </c>
       <c r="C181">
@@ -8004,7 +8004,7 @@
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="4">
         <v>1</v>
       </c>
       <c r="C182">
@@ -8045,7 +8045,7 @@
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="4">
         <v>1</v>
       </c>
       <c r="C183">
@@ -8086,7 +8086,7 @@
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="4">
         <v>1</v>
       </c>
       <c r="C184">
@@ -8127,7 +8127,7 @@
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="4">
         <v>1</v>
       </c>
       <c r="C185">
@@ -8168,7 +8168,7 @@
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="4">
         <v>1</v>
       </c>
       <c r="C186">
@@ -8209,7 +8209,7 @@
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="4">
         <v>1</v>
       </c>
       <c r="C187">
@@ -8250,7 +8250,7 @@
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="4">
         <v>1</v>
       </c>
       <c r="C188">
@@ -8291,7 +8291,7 @@
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="4">
         <v>1</v>
       </c>
       <c r="C189">
@@ -8332,7 +8332,7 @@
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="4">
         <v>1</v>
       </c>
       <c r="C190">
@@ -8373,7 +8373,7 @@
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="4">
         <v>1</v>
       </c>
       <c r="C191">
@@ -8414,7 +8414,7 @@
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="4">
         <v>1</v>
       </c>
       <c r="C192">
@@ -8455,7 +8455,7 @@
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="4">
         <v>1</v>
       </c>
       <c r="C193">
@@ -8496,7 +8496,7 @@
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="4">
         <v>1</v>
       </c>
       <c r="C194">
@@ -8537,7 +8537,7 @@
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="4">
         <v>1</v>
       </c>
       <c r="C195">
@@ -8578,7 +8578,7 @@
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="4">
         <v>1</v>
       </c>
       <c r="C196">
@@ -8619,7 +8619,7 @@
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="4">
         <v>1</v>
       </c>
       <c r="C197">
@@ -8660,7 +8660,7 @@
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="4">
         <v>1</v>
       </c>
       <c r="C198">
@@ -8701,8 +8701,8 @@
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199">
-        <v>0</v>
+      <c r="B199" s="4">
+        <v>1</v>
       </c>
       <c r="C199">
         <v>15</v>
@@ -8742,7 +8742,7 @@
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="4">
         <v>1</v>
       </c>
       <c r="C200">
@@ -8783,7 +8783,7 @@
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="4">
         <v>1</v>
       </c>
       <c r="C201">
@@ -8824,7 +8824,7 @@
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="4">
         <v>1</v>
       </c>
       <c r="C202">
@@ -8865,7 +8865,7 @@
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="4">
         <v>1</v>
       </c>
       <c r="C203">
@@ -8906,7 +8906,7 @@
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="4">
         <v>0</v>
       </c>
       <c r="C204">
@@ -8947,7 +8947,7 @@
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="4">
         <v>0</v>
       </c>
       <c r="C205">
@@ -8988,7 +8988,7 @@
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="4">
         <v>1</v>
       </c>
       <c r="C206">
@@ -9029,7 +9029,7 @@
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="4">
         <v>0</v>
       </c>
       <c r="C207">
@@ -9070,7 +9070,7 @@
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="4">
         <v>0</v>
       </c>
       <c r="C208">
@@ -9111,7 +9111,7 @@
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="4">
         <v>0</v>
       </c>
       <c r="C209">
@@ -9152,7 +9152,7 @@
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="4">
         <v>0</v>
       </c>
       <c r="C210">
@@ -9193,7 +9193,7 @@
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="4">
         <v>0</v>
       </c>
       <c r="C211">
@@ -9234,7 +9234,7 @@
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="4">
         <v>0</v>
       </c>
       <c r="C212">
@@ -9275,7 +9275,7 @@
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="4">
         <v>0</v>
       </c>
       <c r="C213">
@@ -9316,7 +9316,7 @@
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="4">
         <v>0</v>
       </c>
       <c r="C214">
@@ -9357,7 +9357,7 @@
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="4">
         <v>0</v>
       </c>
       <c r="C215">
@@ -9398,7 +9398,7 @@
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="4">
         <v>0</v>
       </c>
       <c r="C216">
@@ -9439,7 +9439,7 @@
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="4">
         <v>0</v>
       </c>
       <c r="C217">
@@ -9480,7 +9480,7 @@
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="4">
         <v>1</v>
       </c>
       <c r="C218">
@@ -9521,7 +9521,7 @@
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="4">
         <v>1</v>
       </c>
       <c r="C219">
@@ -9562,7 +9562,7 @@
       <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="4">
         <v>1</v>
       </c>
       <c r="C220">
@@ -9603,7 +9603,7 @@
       <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="4">
         <v>1</v>
       </c>
       <c r="C221">
@@ -9644,7 +9644,7 @@
       <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="4">
         <v>1</v>
       </c>
       <c r="C222">
@@ -9685,7 +9685,7 @@
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="4">
         <v>1</v>
       </c>
       <c r="C223">
@@ -9726,7 +9726,7 @@
       <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="4">
         <v>1</v>
       </c>
       <c r="C224">
@@ -9767,7 +9767,7 @@
       <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="4">
         <v>1</v>
       </c>
       <c r="C225">
@@ -9808,7 +9808,7 @@
       <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="4">
         <v>1</v>
       </c>
       <c r="C226">
@@ -9849,7 +9849,7 @@
       <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="4">
         <v>1</v>
       </c>
       <c r="C227">
@@ -9890,7 +9890,7 @@
       <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="4">
         <v>1</v>
       </c>
       <c r="C228">
@@ -9931,7 +9931,7 @@
       <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="4">
         <v>1</v>
       </c>
       <c r="C229">
@@ -9972,7 +9972,7 @@
       <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="4">
         <v>1</v>
       </c>
       <c r="C230">
@@ -10013,7 +10013,7 @@
       <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="4">
         <v>1</v>
       </c>
       <c r="C231">
@@ -10054,7 +10054,7 @@
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="4">
         <v>1</v>
       </c>
       <c r="C232">
@@ -10095,7 +10095,7 @@
       <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="4">
         <v>1</v>
       </c>
       <c r="C233">
@@ -10136,7 +10136,7 @@
       <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="4">
         <v>1</v>
       </c>
       <c r="C234">
@@ -10177,7 +10177,7 @@
       <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="4">
         <v>1</v>
       </c>
       <c r="C235">
@@ -10218,7 +10218,7 @@
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="4">
         <v>1</v>
       </c>
       <c r="C236">
@@ -10259,7 +10259,7 @@
       <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="4">
         <v>1</v>
       </c>
       <c r="C237">
@@ -10300,7 +10300,7 @@
       <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="4">
         <v>1</v>
       </c>
       <c r="C238">
@@ -10341,7 +10341,7 @@
       <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="4">
         <v>1</v>
       </c>
       <c r="C239">
@@ -10382,7 +10382,7 @@
       <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="4">
         <v>1</v>
       </c>
       <c r="C240">
@@ -10423,7 +10423,7 @@
       <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="4">
         <v>1</v>
       </c>
       <c r="C241">
@@ -10464,7 +10464,7 @@
       <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="4">
         <v>1</v>
       </c>
       <c r="C242">
@@ -10505,7 +10505,7 @@
       <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="4">
         <v>1</v>
       </c>
       <c r="C243">
@@ -10546,8 +10546,8 @@
       <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244">
-        <v>0</v>
+      <c r="B244" s="4">
+        <v>1</v>
       </c>
       <c r="C244">
         <v>30</v>
@@ -10587,7 +10587,7 @@
       <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="4">
         <v>1</v>
       </c>
       <c r="C245">
@@ -10628,7 +10628,7 @@
       <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="4">
         <v>1</v>
       </c>
       <c r="C246">
@@ -10669,7 +10669,7 @@
       <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="4">
         <v>1</v>
       </c>
       <c r="C247">
@@ -10710,7 +10710,7 @@
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="4">
         <v>1</v>
       </c>
       <c r="C248">
@@ -10751,7 +10751,7 @@
       <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="4">
         <v>1</v>
       </c>
       <c r="C249">
@@ -10792,7 +10792,7 @@
       <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="4">
         <v>1</v>
       </c>
       <c r="C250">
@@ -10833,7 +10833,7 @@
       <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="4">
         <v>1</v>
       </c>
       <c r="C251">
@@ -10874,7 +10874,7 @@
       <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="4">
         <v>0</v>
       </c>
       <c r="C252">
@@ -10915,7 +10915,7 @@
       <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="4">
         <v>0</v>
       </c>
       <c r="C253">
@@ -10956,7 +10956,7 @@
       <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="4">
         <v>1</v>
       </c>
       <c r="C254">
@@ -10997,7 +10997,7 @@
       <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="4">
         <v>1</v>
       </c>
       <c r="C255">
@@ -11038,7 +11038,7 @@
       <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="4">
         <v>1</v>
       </c>
       <c r="C256">
@@ -11079,7 +11079,7 @@
       <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="4">
         <v>1</v>
       </c>
       <c r="C257">
@@ -11120,7 +11120,7 @@
       <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="4">
         <v>1</v>
       </c>
       <c r="C258">
@@ -11161,7 +11161,7 @@
       <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="4">
         <v>1</v>
       </c>
       <c r="C259">
@@ -11202,7 +11202,7 @@
       <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="4">
         <v>1</v>
       </c>
       <c r="C260">
@@ -11243,7 +11243,7 @@
       <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="4">
         <v>0</v>
       </c>
       <c r="C261">
@@ -11284,7 +11284,7 @@
       <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="4">
         <v>0</v>
       </c>
       <c r="C262">
@@ -11325,7 +11325,7 @@
       <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="4">
         <v>1</v>
       </c>
       <c r="C263">
@@ -11366,7 +11366,7 @@
       <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="4">
         <v>1</v>
       </c>
       <c r="C264">
@@ -11407,7 +11407,7 @@
       <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="4">
         <v>1</v>
       </c>
       <c r="C265">
@@ -11448,7 +11448,7 @@
       <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="4">
         <v>1</v>
       </c>
       <c r="C266">
@@ -11489,7 +11489,7 @@
       <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="4">
         <v>0</v>
       </c>
       <c r="C267">
@@ -11530,7 +11530,7 @@
       <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="4">
         <v>0</v>
       </c>
       <c r="C268">
@@ -11571,7 +11571,7 @@
       <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="4">
         <v>1</v>
       </c>
       <c r="C269">
@@ -11612,7 +11612,7 @@
       <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="4">
         <v>0</v>
       </c>
       <c r="C270">
@@ -11653,7 +11653,7 @@
       <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="4">
         <v>0</v>
       </c>
       <c r="C271">
@@ -11694,7 +11694,7 @@
       <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="4">
         <v>0</v>
       </c>
       <c r="C272">
@@ -11735,7 +11735,7 @@
       <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="4">
         <v>1</v>
       </c>
       <c r="C273">
@@ -11776,7 +11776,7 @@
       <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="4">
         <v>0</v>
       </c>
       <c r="C274">
@@ -11817,7 +11817,7 @@
       <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="4">
         <v>1</v>
       </c>
       <c r="C275">
@@ -11858,7 +11858,7 @@
       <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="4">
         <v>0</v>
       </c>
       <c r="C276">
@@ -11899,7 +11899,7 @@
       <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="4">
         <v>0</v>
       </c>
       <c r="C277">
@@ -11940,7 +11940,7 @@
       <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="4">
         <v>1</v>
       </c>
       <c r="C278">
@@ -11981,7 +11981,7 @@
       <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="4">
         <v>0</v>
       </c>
       <c r="C279">
@@ -12022,7 +12022,7 @@
       <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="4">
         <v>0</v>
       </c>
       <c r="C280">
@@ -12063,7 +12063,7 @@
       <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="4">
         <v>0</v>
       </c>
       <c r="C281">
@@ -12104,7 +12104,7 @@
       <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="4">
         <v>0</v>
       </c>
       <c r="C282">
@@ -12145,7 +12145,7 @@
       <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="4">
         <v>0</v>
       </c>
       <c r="C283">
@@ -12186,8 +12186,8 @@
       <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284">
-        <v>1</v>
+      <c r="B284" s="4">
+        <v>0</v>
       </c>
       <c r="C284">
         <v>5</v>
@@ -12227,7 +12227,7 @@
       <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="4">
         <v>0</v>
       </c>
       <c r="C285">
@@ -12268,7 +12268,7 @@
       <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="4">
         <v>0</v>
       </c>
       <c r="C286">
@@ -12309,7 +12309,7 @@
       <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="4">
         <v>0</v>
       </c>
       <c r="C287">
@@ -12350,7 +12350,7 @@
       <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="4">
         <v>0</v>
       </c>
       <c r="C288">
@@ -12391,7 +12391,7 @@
       <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="4">
         <v>0</v>
       </c>
       <c r="C289">
@@ -12432,7 +12432,7 @@
       <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="4">
         <v>1</v>
       </c>
       <c r="C290">
@@ -12473,7 +12473,7 @@
       <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="4">
         <v>1</v>
       </c>
       <c r="C291">
@@ -12514,7 +12514,7 @@
       <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="4">
         <v>1</v>
       </c>
       <c r="C292">
@@ -12555,7 +12555,7 @@
       <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="4">
         <v>1</v>
       </c>
       <c r="C293">
@@ -12596,7 +12596,7 @@
       <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="4">
         <v>1</v>
       </c>
       <c r="C294">
@@ -12637,7 +12637,7 @@
       <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="4">
         <v>1</v>
       </c>
       <c r="C295">
@@ -12678,7 +12678,7 @@
       <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="4">
         <v>1</v>
       </c>
       <c r="C296">
@@ -12719,7 +12719,7 @@
       <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="4">
         <v>0</v>
       </c>
       <c r="C297">
@@ -12760,7 +12760,7 @@
       <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="4">
         <v>0</v>
       </c>
       <c r="C298">
@@ -12801,7 +12801,7 @@
       <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="4">
         <v>1</v>
       </c>
       <c r="C299">
@@ -12842,7 +12842,7 @@
       <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="4">
         <v>1</v>
       </c>
       <c r="C300">
@@ -12883,7 +12883,7 @@
       <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="4">
         <v>1</v>
       </c>
       <c r="C301">
@@ -12924,7 +12924,7 @@
       <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="4">
         <v>1</v>
       </c>
       <c r="C302">
@@ -12965,7 +12965,7 @@
       <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="4">
         <v>1</v>
       </c>
       <c r="C303">
@@ -13006,7 +13006,7 @@
       <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="4">
         <v>1</v>
       </c>
       <c r="C304">
@@ -13047,7 +13047,7 @@
       <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="4">
         <v>1</v>
       </c>
       <c r="C305">
@@ -13088,7 +13088,7 @@
       <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="4">
         <v>0</v>
       </c>
       <c r="C306">
@@ -13129,7 +13129,7 @@
       <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="4">
         <v>0</v>
       </c>
       <c r="C307">
@@ -13170,7 +13170,7 @@
       <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="4">
         <v>1</v>
       </c>
       <c r="C308">
@@ -13211,7 +13211,7 @@
       <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="4">
         <v>1</v>
       </c>
       <c r="C309">
@@ -13252,7 +13252,7 @@
       <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="4">
         <v>1</v>
       </c>
       <c r="C310">
@@ -13293,7 +13293,7 @@
       <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="4">
         <v>1</v>
       </c>
       <c r="C311">
@@ -13334,7 +13334,7 @@
       <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="4">
         <v>1</v>
       </c>
       <c r="C312">
@@ -13375,7 +13375,7 @@
       <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="4">
         <v>1</v>
       </c>
       <c r="C313">
@@ -13416,7 +13416,7 @@
       <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="4">
         <v>1</v>
       </c>
       <c r="C314">
@@ -13457,7 +13457,7 @@
       <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="4">
         <v>0</v>
       </c>
       <c r="C315">
@@ -13498,7 +13498,7 @@
       <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="4">
         <v>0</v>
       </c>
       <c r="C316">
@@ -13539,7 +13539,7 @@
       <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="4">
         <v>0</v>
       </c>
       <c r="C317">
@@ -13580,7 +13580,7 @@
       <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="4">
         <v>1</v>
       </c>
       <c r="C318">
@@ -13621,7 +13621,7 @@
       <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="4">
         <v>0</v>
       </c>
       <c r="C319">
@@ -13662,7 +13662,7 @@
       <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="4">
         <v>1</v>
       </c>
       <c r="C320">
@@ -13703,7 +13703,7 @@
       <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="4">
         <v>0</v>
       </c>
       <c r="C321">
@@ -13744,7 +13744,7 @@
       <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="4">
         <v>0</v>
       </c>
       <c r="C322">
@@ -13785,7 +13785,7 @@
       <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="4">
         <v>1</v>
       </c>
       <c r="C323">
@@ -13826,7 +13826,7 @@
       <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="4">
         <v>0</v>
       </c>
       <c r="C324">
@@ -13867,7 +13867,7 @@
       <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="4">
         <v>0</v>
       </c>
       <c r="C325">
@@ -13908,7 +13908,7 @@
       <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="4">
         <v>0</v>
       </c>
       <c r="C326">
@@ -13949,7 +13949,7 @@
       <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="4">
         <v>0</v>
       </c>
       <c r="C327">
@@ -13990,7 +13990,7 @@
       <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="4">
         <v>0</v>
       </c>
       <c r="C328">
@@ -14031,8 +14031,8 @@
       <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329">
-        <v>1</v>
+      <c r="B329" s="4">
+        <v>0</v>
       </c>
       <c r="C329">
         <v>20</v>
@@ -14072,7 +14072,7 @@
       <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="4">
         <v>0</v>
       </c>
       <c r="C330">
@@ -14113,7 +14113,7 @@
       <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="4">
         <v>0</v>
       </c>
       <c r="C331">
@@ -14154,7 +14154,7 @@
       <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="4">
         <v>0</v>
       </c>
       <c r="C332">
@@ -14195,7 +14195,7 @@
       <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="4">
         <v>0</v>
       </c>
       <c r="C333">
@@ -14236,7 +14236,7 @@
       <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="4">
         <v>0</v>
       </c>
       <c r="C334">
@@ -14277,7 +14277,7 @@
       <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="4">
         <v>0</v>
       </c>
       <c r="C335">
@@ -14318,7 +14318,7 @@
       <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="4">
         <v>0</v>
       </c>
       <c r="C336">
@@ -14359,7 +14359,7 @@
       <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="4">
         <v>0</v>
       </c>
       <c r="C337">
@@ -14400,8 +14400,8 @@
       <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338">
-        <v>1</v>
+      <c r="B338" s="4">
+        <v>0</v>
       </c>
       <c r="C338">
         <v>15</v>
@@ -14441,7 +14441,7 @@
       <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="4">
         <v>0</v>
       </c>
       <c r="C339">
@@ -14482,7 +14482,7 @@
       <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="4">
         <v>0</v>
       </c>
       <c r="C340">
@@ -14523,7 +14523,7 @@
       <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="4">
         <v>0</v>
       </c>
       <c r="C341">
@@ -14564,7 +14564,7 @@
       <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="4">
         <v>0</v>
       </c>
       <c r="C342">
@@ -14605,7 +14605,7 @@
       <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="4">
         <v>0</v>
       </c>
       <c r="C343">
@@ -14646,7 +14646,7 @@
       <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="4">
         <v>0</v>
       </c>
       <c r="C344">
@@ -14687,7 +14687,7 @@
       <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="4">
         <v>0</v>
       </c>
       <c r="C345">
@@ -14728,7 +14728,7 @@
       <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="4">
         <v>0</v>
       </c>
       <c r="C346">
@@ -14769,7 +14769,7 @@
       <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="4">
         <v>0</v>
       </c>
       <c r="C347">
@@ -14810,7 +14810,7 @@
       <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="4">
         <v>0</v>
       </c>
       <c r="C348">
@@ -14851,7 +14851,7 @@
       <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="4">
         <v>0</v>
       </c>
       <c r="C349">
@@ -14892,7 +14892,7 @@
       <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="4">
         <v>0</v>
       </c>
       <c r="C350">
@@ -14933,7 +14933,7 @@
       <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="4">
         <v>0</v>
       </c>
       <c r="C351">
@@ -14974,7 +14974,7 @@
       <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="4">
         <v>0</v>
       </c>
       <c r="C352">
@@ -15015,7 +15015,7 @@
       <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="4">
         <v>0</v>
       </c>
       <c r="C353">
@@ -15056,7 +15056,7 @@
       <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="4">
         <v>0</v>
       </c>
       <c r="C354">
@@ -15097,7 +15097,7 @@
       <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="4">
         <v>0</v>
       </c>
       <c r="C355">
@@ -15138,7 +15138,7 @@
       <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="4">
         <v>0</v>
       </c>
       <c r="C356">
@@ -15179,7 +15179,7 @@
       <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="4">
         <v>0</v>
       </c>
       <c r="C357">
@@ -15220,7 +15220,7 @@
       <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="4">
         <v>0</v>
       </c>
       <c r="C358">
@@ -15261,7 +15261,7 @@
       <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="4">
         <v>0</v>
       </c>
       <c r="C359">
@@ -15302,7 +15302,7 @@
       <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="4">
         <v>0</v>
       </c>
       <c r="C360">
@@ -15343,7 +15343,7 @@
       <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="4">
         <v>0</v>
       </c>
       <c r="C361">
@@ -15384,7 +15384,7 @@
       <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="4">
         <v>1</v>
       </c>
       <c r="C362">
@@ -15425,7 +15425,7 @@
       <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="4">
         <v>1</v>
       </c>
       <c r="C363">
@@ -15466,7 +15466,7 @@
       <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="4">
         <v>1</v>
       </c>
       <c r="C364">
@@ -15507,7 +15507,7 @@
       <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="4">
         <v>1</v>
       </c>
       <c r="C365">
@@ -15548,7 +15548,7 @@
       <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="4">
         <v>1</v>
       </c>
       <c r="C366">
@@ -15589,7 +15589,7 @@
       <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="4">
         <v>1</v>
       </c>
       <c r="C367">
@@ -15630,7 +15630,7 @@
       <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="4">
         <v>1</v>
       </c>
       <c r="C368">
@@ -15671,7 +15671,7 @@
       <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="4">
         <v>1</v>
       </c>
       <c r="C369">
@@ -15712,7 +15712,7 @@
       <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="4">
         <v>1</v>
       </c>
       <c r="C370">
@@ -15753,7 +15753,7 @@
       <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="4">
         <v>1</v>
       </c>
       <c r="C371">
@@ -15794,7 +15794,7 @@
       <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="4">
         <v>1</v>
       </c>
       <c r="C372">
@@ -15835,7 +15835,7 @@
       <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="4">
         <v>1</v>
       </c>
       <c r="C373">
@@ -15876,7 +15876,7 @@
       <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="4">
         <v>1</v>
       </c>
       <c r="C374">
@@ -15917,7 +15917,7 @@
       <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="4">
         <v>1</v>
       </c>
       <c r="C375">
@@ -15958,7 +15958,7 @@
       <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="4">
         <v>1</v>
       </c>
       <c r="C376">
@@ -15999,7 +15999,7 @@
       <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="4">
         <v>1</v>
       </c>
       <c r="C377">
@@ -16040,7 +16040,7 @@
       <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="4">
         <v>1</v>
       </c>
       <c r="C378">
@@ -16081,7 +16081,7 @@
       <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="4">
         <v>1</v>
       </c>
       <c r="C379">
@@ -16122,7 +16122,7 @@
       <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="4">
         <v>1</v>
       </c>
       <c r="C380">
@@ -16163,7 +16163,7 @@
       <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="4">
         <v>1</v>
       </c>
       <c r="C381">
@@ -16204,7 +16204,7 @@
       <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="4">
         <v>1</v>
       </c>
       <c r="C382">
@@ -16245,7 +16245,7 @@
       <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="4">
         <v>1</v>
       </c>
       <c r="C383">
@@ -16286,7 +16286,7 @@
       <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="4">
         <v>1</v>
       </c>
       <c r="C384">
@@ -16327,7 +16327,7 @@
       <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="4">
         <v>1</v>
       </c>
       <c r="C385">
@@ -16368,7 +16368,7 @@
       <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="4">
         <v>1</v>
       </c>
       <c r="C386">
@@ -16409,7 +16409,7 @@
       <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="4">
         <v>1</v>
       </c>
       <c r="C387">
@@ -16450,7 +16450,7 @@
       <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="4">
         <v>1</v>
       </c>
       <c r="C388">
@@ -16491,7 +16491,7 @@
       <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="4">
         <v>1</v>
       </c>
       <c r="C389">
@@ -16532,7 +16532,7 @@
       <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="4">
         <v>1</v>
       </c>
       <c r="C390">
@@ -16573,7 +16573,7 @@
       <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="4">
         <v>1</v>
       </c>
       <c r="C391">
@@ -16614,7 +16614,7 @@
       <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="4">
         <v>1</v>
       </c>
       <c r="C392">
@@ -16655,7 +16655,7 @@
       <c r="A393" s="1">
         <v>391</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="4">
         <v>1</v>
       </c>
       <c r="C393">
@@ -16696,7 +16696,7 @@
       <c r="A394" s="1">
         <v>392</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="4">
         <v>1</v>
       </c>
       <c r="C394">
@@ -16737,7 +16737,7 @@
       <c r="A395" s="1">
         <v>393</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="4">
         <v>1</v>
       </c>
       <c r="C395">
@@ -16778,7 +16778,7 @@
       <c r="A396" s="1">
         <v>394</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="4">
         <v>1</v>
       </c>
       <c r="C396">
@@ -16819,7 +16819,7 @@
       <c r="A397" s="1">
         <v>395</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="4">
         <v>1</v>
       </c>
       <c r="C397">
@@ -16860,7 +16860,7 @@
       <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="4">
         <v>1</v>
       </c>
       <c r="C398">
@@ -16901,7 +16901,7 @@
       <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="4">
         <v>1</v>
       </c>
       <c r="C399">
@@ -16942,7 +16942,7 @@
       <c r="A400" s="1">
         <v>398</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="4">
         <v>1</v>
       </c>
       <c r="C400">
@@ -16983,7 +16983,7 @@
       <c r="A401" s="1">
         <v>399</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="4">
         <v>1</v>
       </c>
       <c r="C401">
@@ -17024,7 +17024,7 @@
       <c r="A402" s="1">
         <v>400</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="4">
         <v>1</v>
       </c>
       <c r="C402">
@@ -17065,7 +17065,7 @@
       <c r="A403" s="1">
         <v>401</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="4">
         <v>1</v>
       </c>
       <c r="C403">
@@ -17106,7 +17106,7 @@
       <c r="A404" s="1">
         <v>402</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="4">
         <v>1</v>
       </c>
       <c r="C404">
@@ -17147,7 +17147,7 @@
       <c r="A405" s="1">
         <v>403</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="4">
         <v>1</v>
       </c>
       <c r="C405">
@@ -17188,8 +17188,8 @@
       <c r="A406" s="1">
         <v>404</v>
       </c>
-      <c r="B406">
-        <v>0</v>
+      <c r="B406" s="4">
+        <v>1</v>
       </c>
       <c r="C406">
         <v>20</v>
@@ -17229,7 +17229,7 @@
       <c r="A407" s="1">
         <v>405</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="4">
         <v>0</v>
       </c>
       <c r="C407">
@@ -17270,7 +17270,7 @@
       <c r="A408" s="1">
         <v>406</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="4">
         <v>1</v>
       </c>
       <c r="C408">
@@ -17311,7 +17311,7 @@
       <c r="A409" s="1">
         <v>407</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="4">
         <v>0</v>
       </c>
       <c r="C409">
@@ -17352,7 +17352,7 @@
       <c r="A410" s="1">
         <v>408</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="4">
         <v>1</v>
       </c>
       <c r="C410">
@@ -17393,7 +17393,7 @@
       <c r="A411" s="1">
         <v>409</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="4">
         <v>0</v>
       </c>
       <c r="C411">
@@ -17434,7 +17434,7 @@
       <c r="A412" s="1">
         <v>410</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="4">
         <v>0</v>
       </c>
       <c r="C412">
@@ -17475,7 +17475,7 @@
       <c r="A413" s="1">
         <v>411</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="4">
         <v>1</v>
       </c>
       <c r="C413">
@@ -17516,7 +17516,7 @@
       <c r="A414" s="1">
         <v>412</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="4">
         <v>0</v>
       </c>
       <c r="C414">
@@ -17557,7 +17557,7 @@
       <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="4">
         <v>0</v>
       </c>
       <c r="C415">
@@ -17598,7 +17598,7 @@
       <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="4">
         <v>0</v>
       </c>
       <c r="C416">
@@ -17639,7 +17639,7 @@
       <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="4">
         <v>0</v>
       </c>
       <c r="C417">
@@ -17680,7 +17680,7 @@
       <c r="A418" s="1">
         <v>416</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="4">
         <v>0</v>
       </c>
       <c r="C418">
@@ -17721,8 +17721,8 @@
       <c r="A419" s="1">
         <v>417</v>
       </c>
-      <c r="B419">
-        <v>1</v>
+      <c r="B419" s="4">
+        <v>0</v>
       </c>
       <c r="C419">
         <v>10</v>
@@ -17762,7 +17762,7 @@
       <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="4">
         <v>0</v>
       </c>
       <c r="C420">
@@ -17803,7 +17803,7 @@
       <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="4">
         <v>0</v>
       </c>
       <c r="C421">
@@ -17844,7 +17844,7 @@
       <c r="A422" s="1">
         <v>420</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="4">
         <v>0</v>
       </c>
       <c r="C422">
@@ -17885,7 +17885,7 @@
       <c r="A423" s="1">
         <v>421</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="4">
         <v>0</v>
       </c>
       <c r="C423">
@@ -17926,7 +17926,7 @@
       <c r="A424" s="1">
         <v>422</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="4">
         <v>0</v>
       </c>
       <c r="C424">
@@ -17967,7 +17967,7 @@
       <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="4">
         <v>0</v>
       </c>
       <c r="C425">
@@ -18008,7 +18008,7 @@
       <c r="A426" s="1">
         <v>424</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="4">
         <v>0</v>
       </c>
       <c r="C426">
@@ -18049,7 +18049,7 @@
       <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="4">
         <v>0</v>
       </c>
       <c r="C427">
@@ -18090,7 +18090,7 @@
       <c r="A428" s="1">
         <v>426</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="4">
         <v>0</v>
       </c>
       <c r="C428">
@@ -18131,7 +18131,7 @@
       <c r="A429" s="1">
         <v>427</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="4">
         <v>0</v>
       </c>
       <c r="C429">
@@ -18172,7 +18172,7 @@
       <c r="A430" s="1">
         <v>428</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="4">
         <v>0</v>
       </c>
       <c r="C430">
@@ -18213,7 +18213,7 @@
       <c r="A431" s="1">
         <v>429</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="4">
         <v>0</v>
       </c>
       <c r="C431">
@@ -18254,7 +18254,7 @@
       <c r="A432" s="1">
         <v>430</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="4">
         <v>0</v>
       </c>
       <c r="C432">
@@ -18295,7 +18295,7 @@
       <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="4">
         <v>0</v>
       </c>
       <c r="C433">
@@ -18336,7 +18336,7 @@
       <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="4">
         <v>1</v>
       </c>
       <c r="C434">
@@ -18377,7 +18377,7 @@
       <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="4">
         <v>1</v>
       </c>
       <c r="C435">
@@ -18418,7 +18418,7 @@
       <c r="A436" s="1">
         <v>434</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="4">
         <v>1</v>
       </c>
       <c r="C436">
@@ -18459,7 +18459,7 @@
       <c r="A437" s="1">
         <v>435</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="4">
         <v>1</v>
       </c>
       <c r="C437">
@@ -18500,7 +18500,7 @@
       <c r="A438" s="1">
         <v>436</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="4">
         <v>1</v>
       </c>
       <c r="C438">
@@ -18541,7 +18541,7 @@
       <c r="A439" s="1">
         <v>437</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="4">
         <v>1</v>
       </c>
       <c r="C439">
@@ -18582,7 +18582,7 @@
       <c r="A440" s="1">
         <v>438</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="4">
         <v>1</v>
       </c>
       <c r="C440">
@@ -18623,7 +18623,7 @@
       <c r="A441" s="1">
         <v>439</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="4">
         <v>1</v>
       </c>
       <c r="C441">
@@ -18664,7 +18664,7 @@
       <c r="A442" s="1">
         <v>440</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="4">
         <v>1</v>
       </c>
       <c r="C442">
@@ -18705,7 +18705,7 @@
       <c r="A443" s="1">
         <v>441</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="4">
         <v>1</v>
       </c>
       <c r="C443">
@@ -18746,7 +18746,7 @@
       <c r="A444" s="1">
         <v>442</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="4">
         <v>1</v>
       </c>
       <c r="C444">
@@ -18787,7 +18787,7 @@
       <c r="A445" s="1">
         <v>443</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="4">
         <v>1</v>
       </c>
       <c r="C445">
@@ -18828,7 +18828,7 @@
       <c r="A446" s="1">
         <v>444</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="4">
         <v>1</v>
       </c>
       <c r="C446">
@@ -18869,7 +18869,7 @@
       <c r="A447" s="1">
         <v>445</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="4">
         <v>1</v>
       </c>
       <c r="C447">
@@ -18910,7 +18910,7 @@
       <c r="A448" s="1">
         <v>446</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="4">
         <v>1</v>
       </c>
       <c r="C448">
@@ -18951,7 +18951,7 @@
       <c r="A449" s="1">
         <v>447</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="4">
         <v>1</v>
       </c>
       <c r="C449">
@@ -18992,7 +18992,7 @@
       <c r="A450" s="1">
         <v>448</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="4">
         <v>1</v>
       </c>
       <c r="C450">
@@ -19033,7 +19033,7 @@
       <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="4">
         <v>1</v>
       </c>
       <c r="C451">
@@ -19074,7 +19074,7 @@
       <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="4">
         <v>1</v>
       </c>
       <c r="C452">
@@ -19115,7 +19115,7 @@
       <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="4">
         <v>1</v>
       </c>
       <c r="C453">
@@ -19156,7 +19156,7 @@
       <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="4">
         <v>1</v>
       </c>
       <c r="C454">
@@ -19197,7 +19197,7 @@
       <c r="A455" s="1">
         <v>453</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="4">
         <v>1</v>
       </c>
       <c r="C455">
@@ -19238,7 +19238,7 @@
       <c r="A456" s="1">
         <v>454</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="4">
         <v>1</v>
       </c>
       <c r="C456">
@@ -19279,7 +19279,7 @@
       <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="4">
         <v>1</v>
       </c>
       <c r="C457">
@@ -19320,7 +19320,7 @@
       <c r="A458" s="1">
         <v>456</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="4">
         <v>1</v>
       </c>
       <c r="C458">
@@ -19361,7 +19361,7 @@
       <c r="A459" s="1">
         <v>457</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="4">
         <v>1</v>
       </c>
       <c r="C459">
@@ -19402,7 +19402,7 @@
       <c r="A460" s="1">
         <v>458</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="4">
         <v>1</v>
       </c>
       <c r="C460">
@@ -19443,7 +19443,7 @@
       <c r="A461" s="1">
         <v>459</v>
       </c>
-      <c r="B461">
+      <c r="B461" s="4">
         <v>1</v>
       </c>
       <c r="C461">
@@ -19484,7 +19484,7 @@
       <c r="A462" s="1">
         <v>460</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="4">
         <v>1</v>
       </c>
       <c r="C462">
@@ -19525,7 +19525,7 @@
       <c r="A463" s="1">
         <v>461</v>
       </c>
-      <c r="B463">
+      <c r="B463" s="4">
         <v>1</v>
       </c>
       <c r="C463">
@@ -19566,7 +19566,7 @@
       <c r="A464" s="1">
         <v>462</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="4">
         <v>1</v>
       </c>
       <c r="C464">
@@ -19607,7 +19607,7 @@
       <c r="A465" s="1">
         <v>463</v>
       </c>
-      <c r="B465">
+      <c r="B465" s="4">
         <v>1</v>
       </c>
       <c r="C465">
@@ -19648,7 +19648,7 @@
       <c r="A466" s="1">
         <v>464</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="4">
         <v>1</v>
       </c>
       <c r="C466">
@@ -19689,7 +19689,7 @@
       <c r="A467" s="1">
         <v>465</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="4">
         <v>1</v>
       </c>
       <c r="C467">
@@ -19730,7 +19730,7 @@
       <c r="A468" s="1">
         <v>466</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="4">
         <v>1</v>
       </c>
       <c r="C468">
@@ -19771,7 +19771,7 @@
       <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="4">
         <v>1</v>
       </c>
       <c r="C469">
@@ -19812,7 +19812,7 @@
       <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="4">
         <v>1</v>
       </c>
       <c r="C470">
@@ -19853,7 +19853,7 @@
       <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B471">
+      <c r="B471" s="4">
         <v>1</v>
       </c>
       <c r="C471">
@@ -19894,7 +19894,7 @@
       <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B472">
+      <c r="B472" s="4">
         <v>1</v>
       </c>
       <c r="C472">
@@ -19935,7 +19935,7 @@
       <c r="A473" s="1">
         <v>471</v>
       </c>
-      <c r="B473">
+      <c r="B473" s="4">
         <v>1</v>
       </c>
       <c r="C473">
@@ -19976,7 +19976,7 @@
       <c r="A474" s="1">
         <v>472</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="4">
         <v>1</v>
       </c>
       <c r="C474">
@@ -20017,7 +20017,7 @@
       <c r="A475" s="1">
         <v>473</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="4">
         <v>1</v>
       </c>
       <c r="C475">
@@ -20058,7 +20058,7 @@
       <c r="A476" s="1">
         <v>474</v>
       </c>
-      <c r="B476">
+      <c r="B476" s="4">
         <v>1</v>
       </c>
       <c r="C476">
@@ -20099,7 +20099,7 @@
       <c r="A477" s="1">
         <v>475</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="4">
         <v>1</v>
       </c>
       <c r="C477">
@@ -20140,7 +20140,7 @@
       <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="4">
         <v>1</v>
       </c>
       <c r="C478">
@@ -20181,7 +20181,7 @@
       <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B479">
+      <c r="B479" s="4">
         <v>1</v>
       </c>
       <c r="C479">
@@ -20222,7 +20222,7 @@
       <c r="A480" s="1">
         <v>478</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="4">
         <v>1</v>
       </c>
       <c r="C480">
@@ -20263,7 +20263,7 @@
       <c r="A481" s="1">
         <v>479</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="4">
         <v>1</v>
       </c>
       <c r="C481">
@@ -20304,7 +20304,7 @@
       <c r="A482" s="1">
         <v>480</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="4">
         <v>1</v>
       </c>
       <c r="C482">
@@ -20345,7 +20345,7 @@
       <c r="A483" s="1">
         <v>481</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="4">
         <v>1</v>
       </c>
       <c r="C483">
@@ -20386,7 +20386,7 @@
       <c r="A484" s="1">
         <v>482</v>
       </c>
-      <c r="B484">
+      <c r="B484" s="4">
         <v>1</v>
       </c>
       <c r="C484">
@@ -20427,7 +20427,7 @@
       <c r="A485" s="1">
         <v>483</v>
       </c>
-      <c r="B485">
+      <c r="B485" s="4">
         <v>1</v>
       </c>
       <c r="C485">
@@ -20468,7 +20468,7 @@
       <c r="A486" s="1">
         <v>484</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="4">
         <v>0</v>
       </c>
       <c r="C486">
@@ -20509,7 +20509,7 @@
       <c r="A487" s="1">
         <v>485</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="4">
         <v>0</v>
       </c>
       <c r="C487">
@@ -20550,7 +20550,7 @@
       <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B488">
+      <c r="B488" s="4">
         <v>0</v>
       </c>
       <c r="C488">
@@ -20591,7 +20591,7 @@
       <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B489">
+      <c r="B489" s="4">
         <v>1</v>
       </c>
       <c r="C489">
@@ -20632,7 +20632,7 @@
       <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="4">
         <v>0</v>
       </c>
       <c r="C490">
@@ -20673,7 +20673,7 @@
       <c r="A491" s="1">
         <v>489</v>
       </c>
-      <c r="B491">
+      <c r="B491" s="4">
         <v>1</v>
       </c>
       <c r="C491">
@@ -20714,7 +20714,7 @@
       <c r="A492" s="1">
         <v>490</v>
       </c>
-      <c r="B492">
+      <c r="B492" s="4">
         <v>0</v>
       </c>
       <c r="C492">
@@ -20755,7 +20755,7 @@
       <c r="A493" s="1">
         <v>491</v>
       </c>
-      <c r="B493">
+      <c r="B493" s="4">
         <v>0</v>
       </c>
       <c r="C493">
@@ -20796,7 +20796,7 @@
       <c r="A494" s="1">
         <v>492</v>
       </c>
-      <c r="B494">
+      <c r="B494" s="4">
         <v>1</v>
       </c>
       <c r="C494">
@@ -20837,7 +20837,7 @@
       <c r="A495" s="1">
         <v>493</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="4">
         <v>0</v>
       </c>
       <c r="C495">
@@ -20878,7 +20878,7 @@
       <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B496">
+      <c r="B496" s="4">
         <v>0</v>
       </c>
       <c r="C496">
@@ -20919,7 +20919,7 @@
       <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="4">
         <v>0</v>
       </c>
       <c r="C497">
@@ -20960,7 +20960,7 @@
       <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B498">
+      <c r="B498" s="4">
         <v>0</v>
       </c>
       <c r="C498">
@@ -21001,7 +21001,7 @@
       <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B499">
+      <c r="B499" s="4">
         <v>0</v>
       </c>
       <c r="C499">
@@ -21042,8 +21042,8 @@
       <c r="A500" s="1">
         <v>498</v>
       </c>
-      <c r="B500">
-        <v>1</v>
+      <c r="B500" s="4">
+        <v>0</v>
       </c>
       <c r="C500">
         <v>5</v>
@@ -21083,7 +21083,7 @@
       <c r="A501" s="1">
         <v>499</v>
       </c>
-      <c r="B501">
+      <c r="B501" s="4">
         <v>0</v>
       </c>
       <c r="C501">
@@ -21124,7 +21124,7 @@
       <c r="A502" s="1">
         <v>500</v>
       </c>
-      <c r="B502">
+      <c r="B502" s="4">
         <v>0</v>
       </c>
       <c r="C502">
@@ -21165,7 +21165,7 @@
       <c r="A503" s="1">
         <v>501</v>
       </c>
-      <c r="B503">
+      <c r="B503" s="4">
         <v>0</v>
       </c>
       <c r="C503">
@@ -21206,7 +21206,7 @@
       <c r="A504" s="1">
         <v>502</v>
       </c>
-      <c r="B504">
+      <c r="B504" s="4">
         <v>0</v>
       </c>
       <c r="C504">
@@ -21247,7 +21247,7 @@
       <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B505">
+      <c r="B505" s="4">
         <v>0</v>
       </c>
       <c r="C505">
@@ -21288,7 +21288,7 @@
       <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B506">
+      <c r="B506" s="4">
         <v>1</v>
       </c>
       <c r="C506">
@@ -21329,7 +21329,7 @@
       <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B507">
+      <c r="B507" s="4">
         <v>1</v>
       </c>
       <c r="C507">
@@ -21370,7 +21370,7 @@
       <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B508">
+      <c r="B508" s="4">
         <v>1</v>
       </c>
       <c r="C508">
@@ -21411,7 +21411,7 @@
       <c r="A509" s="1">
         <v>507</v>
       </c>
-      <c r="B509">
+      <c r="B509" s="4">
         <v>1</v>
       </c>
       <c r="C509">
@@ -21452,7 +21452,7 @@
       <c r="A510" s="1">
         <v>508</v>
       </c>
-      <c r="B510">
+      <c r="B510" s="4">
         <v>1</v>
       </c>
       <c r="C510">
@@ -21493,7 +21493,7 @@
       <c r="A511" s="1">
         <v>509</v>
       </c>
-      <c r="B511">
+      <c r="B511" s="4">
         <v>1</v>
       </c>
       <c r="C511">
@@ -21534,7 +21534,7 @@
       <c r="A512" s="1">
         <v>510</v>
       </c>
-      <c r="B512">
+      <c r="B512" s="4">
         <v>1</v>
       </c>
       <c r="C512">
@@ -21575,7 +21575,7 @@
       <c r="A513" s="1">
         <v>511</v>
       </c>
-      <c r="B513">
+      <c r="B513" s="4">
         <v>1</v>
       </c>
       <c r="C513">
@@ -21616,7 +21616,7 @@
       <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B514">
+      <c r="B514" s="4">
         <v>1</v>
       </c>
       <c r="C514">
@@ -21657,7 +21657,7 @@
       <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B515">
+      <c r="B515" s="4">
         <v>1</v>
       </c>
       <c r="C515">
@@ -21698,7 +21698,7 @@
       <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B516">
+      <c r="B516" s="4">
         <v>1</v>
       </c>
       <c r="C516">
@@ -21739,7 +21739,7 @@
       <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B517">
+      <c r="B517" s="4">
         <v>1</v>
       </c>
       <c r="C517">
@@ -21780,7 +21780,7 @@
       <c r="A518" s="1">
         <v>516</v>
       </c>
-      <c r="B518">
+      <c r="B518" s="4">
         <v>1</v>
       </c>
       <c r="C518">
@@ -21821,7 +21821,7 @@
       <c r="A519" s="1">
         <v>517</v>
       </c>
-      <c r="B519">
+      <c r="B519" s="4">
         <v>1</v>
       </c>
       <c r="C519">
@@ -21862,7 +21862,7 @@
       <c r="A520" s="1">
         <v>518</v>
       </c>
-      <c r="B520">
+      <c r="B520" s="4">
         <v>1</v>
       </c>
       <c r="C520">
@@ -21903,7 +21903,7 @@
       <c r="A521" s="1">
         <v>519</v>
       </c>
-      <c r="B521">
+      <c r="B521" s="4">
         <v>1</v>
       </c>
       <c r="C521">
@@ -21944,7 +21944,7 @@
       <c r="A522" s="1">
         <v>520</v>
       </c>
-      <c r="B522">
+      <c r="B522" s="4">
         <v>1</v>
       </c>
       <c r="C522">
@@ -21985,7 +21985,7 @@
       <c r="A523" s="1">
         <v>521</v>
       </c>
-      <c r="B523">
+      <c r="B523" s="4">
         <v>1</v>
       </c>
       <c r="C523">
@@ -22026,7 +22026,7 @@
       <c r="A524" s="1">
         <v>522</v>
       </c>
-      <c r="B524">
+      <c r="B524" s="4">
         <v>1</v>
       </c>
       <c r="C524">
@@ -22067,7 +22067,7 @@
       <c r="A525" s="1">
         <v>523</v>
       </c>
-      <c r="B525">
+      <c r="B525" s="4">
         <v>1</v>
       </c>
       <c r="C525">
@@ -22108,7 +22108,7 @@
       <c r="A526" s="1">
         <v>524</v>
       </c>
-      <c r="B526">
+      <c r="B526" s="4">
         <v>1</v>
       </c>
       <c r="C526">
@@ -22149,7 +22149,7 @@
       <c r="A527" s="1">
         <v>525</v>
       </c>
-      <c r="B527">
+      <c r="B527" s="4">
         <v>1</v>
       </c>
       <c r="C527">
@@ -22190,7 +22190,7 @@
       <c r="A528" s="1">
         <v>526</v>
       </c>
-      <c r="B528">
+      <c r="B528" s="4">
         <v>1</v>
       </c>
       <c r="C528">
@@ -22231,7 +22231,7 @@
       <c r="A529" s="1">
         <v>527</v>
       </c>
-      <c r="B529">
+      <c r="B529" s="4">
         <v>1</v>
       </c>
       <c r="C529">
@@ -22272,7 +22272,7 @@
       <c r="A530" s="1">
         <v>528</v>
       </c>
-      <c r="B530">
+      <c r="B530" s="4">
         <v>1</v>
       </c>
       <c r="C530">
@@ -22313,7 +22313,7 @@
       <c r="A531" s="1">
         <v>529</v>
       </c>
-      <c r="B531">
+      <c r="B531" s="4">
         <v>1</v>
       </c>
       <c r="C531">
@@ -22354,7 +22354,7 @@
       <c r="A532" s="1">
         <v>530</v>
       </c>
-      <c r="B532">
+      <c r="B532" s="4">
         <v>1</v>
       </c>
       <c r="C532">
@@ -22395,7 +22395,7 @@
       <c r="A533" s="1">
         <v>531</v>
       </c>
-      <c r="B533">
+      <c r="B533" s="4">
         <v>1</v>
       </c>
       <c r="C533">
@@ -22436,7 +22436,7 @@
       <c r="A534" s="1">
         <v>532</v>
       </c>
-      <c r="B534">
+      <c r="B534" s="4">
         <v>1</v>
       </c>
       <c r="C534">
@@ -22477,7 +22477,7 @@
       <c r="A535" s="1">
         <v>533</v>
       </c>
-      <c r="B535">
+      <c r="B535" s="4">
         <v>1</v>
       </c>
       <c r="C535">
@@ -22518,7 +22518,7 @@
       <c r="A536" s="1">
         <v>534</v>
       </c>
-      <c r="B536">
+      <c r="B536" s="4">
         <v>1</v>
       </c>
       <c r="C536">
@@ -22559,7 +22559,7 @@
       <c r="A537" s="1">
         <v>535</v>
       </c>
-      <c r="B537">
+      <c r="B537" s="4">
         <v>1</v>
       </c>
       <c r="C537">
@@ -22600,7 +22600,7 @@
       <c r="A538" s="1">
         <v>536</v>
       </c>
-      <c r="B538">
+      <c r="B538" s="4">
         <v>1</v>
       </c>
       <c r="C538">
@@ -22641,7 +22641,7 @@
       <c r="A539" s="1">
         <v>537</v>
       </c>
-      <c r="B539">
+      <c r="B539" s="4">
         <v>1</v>
       </c>
       <c r="C539">
@@ -22682,7 +22682,7 @@
       <c r="A540" s="1">
         <v>538</v>
       </c>
-      <c r="B540">
+      <c r="B540" s="4">
         <v>1</v>
       </c>
       <c r="C540">
@@ -22723,8 +22723,8 @@
       <c r="A541" s="1">
         <v>539</v>
       </c>
-      <c r="B541">
-        <v>0</v>
+      <c r="B541" s="4">
+        <v>1</v>
       </c>
       <c r="C541">
         <v>25</v>
@@ -22764,8 +22764,8 @@
       <c r="A542" s="1">
         <v>540</v>
       </c>
-      <c r="B542">
-        <v>1</v>
+      <c r="B542" s="4">
+        <v>0</v>
       </c>
       <c r="C542">
         <v>20</v>
@@ -22805,7 +22805,7 @@
       <c r="A543" s="1">
         <v>541</v>
       </c>
-      <c r="B543">
+      <c r="B543" s="4">
         <v>1</v>
       </c>
       <c r="C543">
@@ -22846,7 +22846,7 @@
       <c r="A544" s="1">
         <v>542</v>
       </c>
-      <c r="B544">
+      <c r="B544" s="4">
         <v>0</v>
       </c>
       <c r="C544">
@@ -22887,7 +22887,7 @@
       <c r="A545" s="1">
         <v>543</v>
       </c>
-      <c r="B545">
+      <c r="B545" s="4">
         <v>1</v>
       </c>
       <c r="C545">
@@ -22928,7 +22928,7 @@
       <c r="A546" s="1">
         <v>544</v>
       </c>
-      <c r="B546">
+      <c r="B546" s="4">
         <v>0</v>
       </c>
       <c r="C546">
@@ -22969,7 +22969,7 @@
       <c r="A547" s="1">
         <v>545</v>
       </c>
-      <c r="B547">
+      <c r="B547" s="4">
         <v>0</v>
       </c>
       <c r="C547">
@@ -23010,7 +23010,7 @@
       <c r="A548" s="1">
         <v>546</v>
       </c>
-      <c r="B548">
+      <c r="B548" s="4">
         <v>1</v>
       </c>
       <c r="C548">
@@ -23051,7 +23051,7 @@
       <c r="A549" s="1">
         <v>547</v>
       </c>
-      <c r="B549">
+      <c r="B549" s="4">
         <v>0</v>
       </c>
       <c r="C549">
@@ -23092,7 +23092,7 @@
       <c r="A550" s="1">
         <v>548</v>
       </c>
-      <c r="B550">
+      <c r="B550" s="4">
         <v>0</v>
       </c>
       <c r="C550">
@@ -23133,8 +23133,8 @@
       <c r="A551" s="1">
         <v>549</v>
       </c>
-      <c r="B551">
-        <v>1</v>
+      <c r="B551" s="4">
+        <v>0</v>
       </c>
       <c r="C551">
         <v>15</v>
@@ -23174,7 +23174,7 @@
       <c r="A552" s="1">
         <v>550</v>
       </c>
-      <c r="B552">
+      <c r="B552" s="4">
         <v>1</v>
       </c>
       <c r="C552">
@@ -23215,7 +23215,7 @@
       <c r="A553" s="1">
         <v>551</v>
       </c>
-      <c r="B553">
+      <c r="B553" s="4">
         <v>0</v>
       </c>
       <c r="C553">
@@ -23256,7 +23256,7 @@
       <c r="A554" s="1">
         <v>552</v>
       </c>
-      <c r="B554">
+      <c r="B554" s="4">
         <v>1</v>
       </c>
       <c r="C554">
@@ -23297,7 +23297,7 @@
       <c r="A555" s="1">
         <v>553</v>
       </c>
-      <c r="B555">
+      <c r="B555" s="4">
         <v>0</v>
       </c>
       <c r="C555">
@@ -23338,7 +23338,7 @@
       <c r="A556" s="1">
         <v>554</v>
       </c>
-      <c r="B556">
+      <c r="B556" s="4">
         <v>0</v>
       </c>
       <c r="C556">
@@ -23379,7 +23379,7 @@
       <c r="A557" s="1">
         <v>555</v>
       </c>
-      <c r="B557">
+      <c r="B557" s="4">
         <v>1</v>
       </c>
       <c r="C557">
@@ -23420,7 +23420,7 @@
       <c r="A558" s="1">
         <v>556</v>
       </c>
-      <c r="B558">
+      <c r="B558" s="4">
         <v>0</v>
       </c>
       <c r="C558">
@@ -23461,7 +23461,7 @@
       <c r="A559" s="1">
         <v>557</v>
       </c>
-      <c r="B559">
+      <c r="B559" s="4">
         <v>0</v>
       </c>
       <c r="C559">
@@ -23502,7 +23502,7 @@
       <c r="A560" s="1">
         <v>558</v>
       </c>
-      <c r="B560">
+      <c r="B560" s="4">
         <v>0</v>
       </c>
       <c r="C560">
@@ -23543,7 +23543,7 @@
       <c r="A561" s="1">
         <v>559</v>
       </c>
-      <c r="B561">
+      <c r="B561" s="4">
         <v>0</v>
       </c>
       <c r="C561">
@@ -23584,7 +23584,7 @@
       <c r="A562" s="1">
         <v>560</v>
       </c>
-      <c r="B562">
+      <c r="B562" s="4">
         <v>0</v>
       </c>
       <c r="C562">
@@ -23625,8 +23625,8 @@
       <c r="A563" s="1">
         <v>561</v>
       </c>
-      <c r="B563">
-        <v>1</v>
+      <c r="B563" s="4">
+        <v>0</v>
       </c>
       <c r="C563">
         <v>10</v>
@@ -23666,7 +23666,7 @@
       <c r="A564" s="1">
         <v>562</v>
       </c>
-      <c r="B564">
+      <c r="B564" s="4">
         <v>0</v>
       </c>
       <c r="C564">
@@ -23707,7 +23707,7 @@
       <c r="A565" s="1">
         <v>563</v>
       </c>
-      <c r="B565">
+      <c r="B565" s="4">
         <v>0</v>
       </c>
       <c r="C565">
@@ -23748,7 +23748,7 @@
       <c r="A566" s="1">
         <v>564</v>
       </c>
-      <c r="B566">
+      <c r="B566" s="4">
         <v>0</v>
       </c>
       <c r="C566">
@@ -23789,7 +23789,7 @@
       <c r="A567" s="1">
         <v>565</v>
       </c>
-      <c r="B567">
+      <c r="B567" s="4">
         <v>0</v>
       </c>
       <c r="C567">
@@ -23830,7 +23830,7 @@
       <c r="A568" s="1">
         <v>566</v>
       </c>
-      <c r="B568">
+      <c r="B568" s="4">
         <v>0</v>
       </c>
       <c r="C568">
@@ -23871,7 +23871,7 @@
       <c r="A569" s="1">
         <v>567</v>
       </c>
-      <c r="B569">
+      <c r="B569" s="4">
         <v>0</v>
       </c>
       <c r="C569">
@@ -23912,7 +23912,7 @@
       <c r="A570" s="1">
         <v>568</v>
       </c>
-      <c r="B570">
+      <c r="B570" s="4">
         <v>0</v>
       </c>
       <c r="C570">
@@ -23953,7 +23953,7 @@
       <c r="A571" s="1">
         <v>569</v>
       </c>
-      <c r="B571">
+      <c r="B571" s="4">
         <v>0</v>
       </c>
       <c r="C571">
@@ -23994,7 +23994,7 @@
       <c r="A572" s="1">
         <v>570</v>
       </c>
-      <c r="B572">
+      <c r="B572" s="4">
         <v>0</v>
       </c>
       <c r="C572">
@@ -24035,7 +24035,7 @@
       <c r="A573" s="1">
         <v>571</v>
       </c>
-      <c r="B573">
+      <c r="B573" s="4">
         <v>0</v>
       </c>
       <c r="C573">
@@ -24076,7 +24076,7 @@
       <c r="A574" s="1">
         <v>572</v>
       </c>
-      <c r="B574">
+      <c r="B574" s="4">
         <v>0</v>
       </c>
       <c r="C574">
@@ -24117,7 +24117,7 @@
       <c r="A575" s="1">
         <v>573</v>
       </c>
-      <c r="B575">
+      <c r="B575" s="4">
         <v>0</v>
       </c>
       <c r="C575">
@@ -24158,7 +24158,7 @@
       <c r="A576" s="1">
         <v>574</v>
       </c>
-      <c r="B576">
+      <c r="B576" s="4">
         <v>0</v>
       </c>
       <c r="C576">
@@ -24199,7 +24199,7 @@
       <c r="A577" s="1">
         <v>575</v>
       </c>
-      <c r="B577">
+      <c r="B577" s="4">
         <v>0</v>
       </c>
       <c r="C577">
@@ -24240,7 +24240,7 @@
       <c r="A578" s="1">
         <v>576</v>
       </c>
-      <c r="B578">
+      <c r="B578" s="4">
         <v>1</v>
       </c>
       <c r="C578">
@@ -24281,7 +24281,7 @@
       <c r="A579" s="1">
         <v>577</v>
       </c>
-      <c r="B579">
+      <c r="B579" s="4">
         <v>1</v>
       </c>
       <c r="C579">
@@ -24322,7 +24322,7 @@
       <c r="A580" s="1">
         <v>578</v>
       </c>
-      <c r="B580">
+      <c r="B580" s="4">
         <v>1</v>
       </c>
       <c r="C580">
@@ -24363,7 +24363,7 @@
       <c r="A581" s="1">
         <v>579</v>
       </c>
-      <c r="B581">
+      <c r="B581" s="4">
         <v>1</v>
       </c>
       <c r="C581">
@@ -24404,7 +24404,7 @@
       <c r="A582" s="1">
         <v>580</v>
       </c>
-      <c r="B582">
+      <c r="B582" s="4">
         <v>1</v>
       </c>
       <c r="C582">
@@ -24445,7 +24445,7 @@
       <c r="A583" s="1">
         <v>581</v>
       </c>
-      <c r="B583">
+      <c r="B583" s="4">
         <v>1</v>
       </c>
       <c r="C583">
@@ -24486,7 +24486,7 @@
       <c r="A584" s="1">
         <v>582</v>
       </c>
-      <c r="B584">
+      <c r="B584" s="4">
         <v>1</v>
       </c>
       <c r="C584">
@@ -24527,7 +24527,7 @@
       <c r="A585" s="1">
         <v>583</v>
       </c>
-      <c r="B585">
+      <c r="B585" s="4">
         <v>1</v>
       </c>
       <c r="C585">
@@ -24568,7 +24568,7 @@
       <c r="A586" s="1">
         <v>584</v>
       </c>
-      <c r="B586">
+      <c r="B586" s="4">
         <v>1</v>
       </c>
       <c r="C586">
@@ -24609,7 +24609,7 @@
       <c r="A587" s="1">
         <v>585</v>
       </c>
-      <c r="B587">
+      <c r="B587" s="4">
         <v>1</v>
       </c>
       <c r="C587">
@@ -24650,7 +24650,7 @@
       <c r="A588" s="1">
         <v>586</v>
       </c>
-      <c r="B588">
+      <c r="B588" s="4">
         <v>1</v>
       </c>
       <c r="C588">
@@ -24691,7 +24691,7 @@
       <c r="A589" s="1">
         <v>587</v>
       </c>
-      <c r="B589">
+      <c r="B589" s="4">
         <v>1</v>
       </c>
       <c r="C589">
@@ -24732,7 +24732,7 @@
       <c r="A590" s="1">
         <v>588</v>
       </c>
-      <c r="B590">
+      <c r="B590" s="4">
         <v>1</v>
       </c>
       <c r="C590">
@@ -24773,7 +24773,7 @@
       <c r="A591" s="1">
         <v>589</v>
       </c>
-      <c r="B591">
+      <c r="B591" s="4">
         <v>1</v>
       </c>
       <c r="C591">
@@ -24814,7 +24814,7 @@
       <c r="A592" s="1">
         <v>590</v>
       </c>
-      <c r="B592">
+      <c r="B592" s="4">
         <v>1</v>
       </c>
       <c r="C592">
@@ -24855,7 +24855,7 @@
       <c r="A593" s="1">
         <v>591</v>
       </c>
-      <c r="B593">
+      <c r="B593" s="4">
         <v>1</v>
       </c>
       <c r="C593">
@@ -24896,7 +24896,7 @@
       <c r="A594" s="1">
         <v>592</v>
       </c>
-      <c r="B594">
+      <c r="B594" s="4">
         <v>1</v>
       </c>
       <c r="C594">
@@ -24937,7 +24937,7 @@
       <c r="A595" s="1">
         <v>593</v>
       </c>
-      <c r="B595">
+      <c r="B595" s="4">
         <v>1</v>
       </c>
       <c r="C595">
@@ -24978,7 +24978,7 @@
       <c r="A596" s="1">
         <v>594</v>
       </c>
-      <c r="B596">
+      <c r="B596" s="4">
         <v>1</v>
       </c>
       <c r="C596">
@@ -25019,7 +25019,7 @@
       <c r="A597" s="1">
         <v>595</v>
       </c>
-      <c r="B597">
+      <c r="B597" s="4">
         <v>1</v>
       </c>
       <c r="C597">
@@ -25060,7 +25060,7 @@
       <c r="A598" s="1">
         <v>596</v>
       </c>
-      <c r="B598">
+      <c r="B598" s="4">
         <v>1</v>
       </c>
       <c r="C598">
@@ -25101,7 +25101,7 @@
       <c r="A599" s="1">
         <v>597</v>
       </c>
-      <c r="B599">
+      <c r="B599" s="4">
         <v>1</v>
       </c>
       <c r="C599">
@@ -25142,7 +25142,7 @@
       <c r="A600" s="1">
         <v>598</v>
       </c>
-      <c r="B600">
+      <c r="B600" s="4">
         <v>1</v>
       </c>
       <c r="C600">
@@ -25183,7 +25183,7 @@
       <c r="A601" s="1">
         <v>599</v>
       </c>
-      <c r="B601">
+      <c r="B601" s="4">
         <v>1</v>
       </c>
       <c r="C601">
@@ -25224,7 +25224,7 @@
       <c r="A602" s="1">
         <v>600</v>
       </c>
-      <c r="B602">
+      <c r="B602" s="4">
         <v>1</v>
       </c>
       <c r="C602">
@@ -25265,7 +25265,7 @@
       <c r="A603" s="1">
         <v>601</v>
       </c>
-      <c r="B603">
+      <c r="B603" s="4">
         <v>1</v>
       </c>
       <c r="C603">
@@ -25306,7 +25306,7 @@
       <c r="A604" s="1">
         <v>602</v>
       </c>
-      <c r="B604">
+      <c r="B604" s="4">
         <v>1</v>
       </c>
       <c r="C604">
@@ -25347,7 +25347,7 @@
       <c r="A605" s="1">
         <v>603</v>
       </c>
-      <c r="B605">
+      <c r="B605" s="4">
         <v>1</v>
       </c>
       <c r="C605">
@@ -25388,7 +25388,7 @@
       <c r="A606" s="1">
         <v>604</v>
       </c>
-      <c r="B606">
+      <c r="B606" s="4">
         <v>1</v>
       </c>
       <c r="C606">
@@ -25429,7 +25429,7 @@
       <c r="A607" s="1">
         <v>605</v>
       </c>
-      <c r="B607">
+      <c r="B607" s="4">
         <v>1</v>
       </c>
       <c r="C607">
@@ -25470,7 +25470,7 @@
       <c r="A608" s="1">
         <v>606</v>
       </c>
-      <c r="B608">
+      <c r="B608" s="4">
         <v>1</v>
       </c>
       <c r="C608">
@@ -25511,7 +25511,7 @@
       <c r="A609" s="1">
         <v>607</v>
       </c>
-      <c r="B609">
+      <c r="B609" s="4">
         <v>1</v>
       </c>
       <c r="C609">
@@ -25552,7 +25552,7 @@
       <c r="A610" s="1">
         <v>608</v>
       </c>
-      <c r="B610">
+      <c r="B610" s="4">
         <v>1</v>
       </c>
       <c r="C610">
@@ -25593,7 +25593,7 @@
       <c r="A611" s="1">
         <v>609</v>
       </c>
-      <c r="B611">
+      <c r="B611" s="4">
         <v>1</v>
       </c>
       <c r="C611">
@@ -25634,7 +25634,7 @@
       <c r="A612" s="1">
         <v>610</v>
       </c>
-      <c r="B612">
+      <c r="B612" s="4">
         <v>1</v>
       </c>
       <c r="C612">
@@ -25675,7 +25675,7 @@
       <c r="A613" s="1">
         <v>611</v>
       </c>
-      <c r="B613">
+      <c r="B613" s="4">
         <v>1</v>
       </c>
       <c r="C613">
@@ -25716,7 +25716,7 @@
       <c r="A614" s="1">
         <v>612</v>
       </c>
-      <c r="B614">
+      <c r="B614" s="4">
         <v>1</v>
       </c>
       <c r="C614">
@@ -25757,7 +25757,7 @@
       <c r="A615" s="1">
         <v>613</v>
       </c>
-      <c r="B615">
+      <c r="B615" s="4">
         <v>1</v>
       </c>
       <c r="C615">
@@ -25798,7 +25798,7 @@
       <c r="A616" s="1">
         <v>614</v>
       </c>
-      <c r="B616">
+      <c r="B616" s="4">
         <v>1</v>
       </c>
       <c r="C616">
@@ -25839,7 +25839,7 @@
       <c r="A617" s="1">
         <v>615</v>
       </c>
-      <c r="B617">
+      <c r="B617" s="4">
         <v>1</v>
       </c>
       <c r="C617">
@@ -25880,7 +25880,7 @@
       <c r="A618" s="1">
         <v>616</v>
       </c>
-      <c r="B618">
+      <c r="B618" s="4">
         <v>1</v>
       </c>
       <c r="C618">
@@ -25921,7 +25921,7 @@
       <c r="A619" s="1">
         <v>617</v>
       </c>
-      <c r="B619">
+      <c r="B619" s="4">
         <v>1</v>
       </c>
       <c r="C619">
@@ -25962,7 +25962,7 @@
       <c r="A620" s="1">
         <v>618</v>
       </c>
-      <c r="B620">
+      <c r="B620" s="4">
         <v>1</v>
       </c>
       <c r="C620">
@@ -26003,7 +26003,7 @@
       <c r="A621" s="1">
         <v>619</v>
       </c>
-      <c r="B621">
+      <c r="B621" s="4">
         <v>0</v>
       </c>
       <c r="C621">
@@ -26044,7 +26044,7 @@
       <c r="A622" s="1">
         <v>620</v>
       </c>
-      <c r="B622">
+      <c r="B622" s="4">
         <v>0</v>
       </c>
       <c r="C622">
@@ -26085,7 +26085,7 @@
       <c r="A623" s="1">
         <v>621</v>
       </c>
-      <c r="B623">
+      <c r="B623" s="4">
         <v>0</v>
       </c>
       <c r="C623">
@@ -26126,7 +26126,7 @@
       <c r="A624" s="1">
         <v>622</v>
       </c>
-      <c r="B624">
+      <c r="B624" s="4">
         <v>1</v>
       </c>
       <c r="C624">
@@ -26167,7 +26167,7 @@
       <c r="A625" s="1">
         <v>623</v>
       </c>
-      <c r="B625">
+      <c r="B625" s="4">
         <v>0</v>
       </c>
       <c r="C625">
@@ -26208,7 +26208,7 @@
       <c r="A626" s="1">
         <v>624</v>
       </c>
-      <c r="B626">
+      <c r="B626" s="4">
         <v>1</v>
       </c>
       <c r="C626">
@@ -26249,7 +26249,7 @@
       <c r="A627" s="1">
         <v>625</v>
       </c>
-      <c r="B627">
+      <c r="B627" s="4">
         <v>0</v>
       </c>
       <c r="C627">
@@ -26290,7 +26290,7 @@
       <c r="A628" s="1">
         <v>626</v>
       </c>
-      <c r="B628">
+      <c r="B628" s="4">
         <v>0</v>
       </c>
       <c r="C628">
@@ -26331,7 +26331,7 @@
       <c r="A629" s="1">
         <v>627</v>
       </c>
-      <c r="B629">
+      <c r="B629" s="4">
         <v>1</v>
       </c>
       <c r="C629">
@@ -26372,7 +26372,7 @@
       <c r="A630" s="1">
         <v>628</v>
       </c>
-      <c r="B630">
+      <c r="B630" s="4">
         <v>0</v>
       </c>
       <c r="C630">
@@ -26413,7 +26413,7 @@
       <c r="A631" s="1">
         <v>629</v>
       </c>
-      <c r="B631">
+      <c r="B631" s="4">
         <v>0</v>
       </c>
       <c r="C631">
@@ -26454,7 +26454,7 @@
       <c r="A632" s="1">
         <v>630</v>
       </c>
-      <c r="B632">
+      <c r="B632" s="4">
         <v>0</v>
       </c>
       <c r="C632">
@@ -26495,7 +26495,7 @@
       <c r="A633" s="1">
         <v>631</v>
       </c>
-      <c r="B633">
+      <c r="B633" s="4">
         <v>0</v>
       </c>
       <c r="C633">
@@ -26536,7 +26536,7 @@
       <c r="A634" s="1">
         <v>632</v>
       </c>
-      <c r="B634">
+      <c r="B634" s="4">
         <v>0</v>
       </c>
       <c r="C634">
@@ -26577,8 +26577,8 @@
       <c r="A635" s="1">
         <v>633</v>
       </c>
-      <c r="B635">
-        <v>1</v>
+      <c r="B635" s="4">
+        <v>0</v>
       </c>
       <c r="C635">
         <v>10</v>
@@ -26618,7 +26618,7 @@
       <c r="A636" s="1">
         <v>634</v>
       </c>
-      <c r="B636">
+      <c r="B636" s="4">
         <v>0</v>
       </c>
       <c r="C636">
@@ -26659,7 +26659,7 @@
       <c r="A637" s="1">
         <v>635</v>
       </c>
-      <c r="B637">
+      <c r="B637" s="4">
         <v>0</v>
       </c>
       <c r="C637">
@@ -26700,7 +26700,7 @@
       <c r="A638" s="1">
         <v>636</v>
       </c>
-      <c r="B638">
+      <c r="B638" s="4">
         <v>0</v>
       </c>
       <c r="C638">
@@ -26741,7 +26741,7 @@
       <c r="A639" s="1">
         <v>637</v>
       </c>
-      <c r="B639">
+      <c r="B639" s="4">
         <v>0</v>
       </c>
       <c r="C639">
@@ -26782,7 +26782,7 @@
       <c r="A640" s="1">
         <v>638</v>
       </c>
-      <c r="B640">
+      <c r="B640" s="4">
         <v>0</v>
       </c>
       <c r="C640">
@@ -26823,7 +26823,7 @@
       <c r="A641" s="1">
         <v>639</v>
       </c>
-      <c r="B641">
+      <c r="B641" s="4">
         <v>0</v>
       </c>
       <c r="C641">
@@ -26864,7 +26864,7 @@
       <c r="A642" s="1">
         <v>640</v>
       </c>
-      <c r="B642">
+      <c r="B642" s="4">
         <v>0</v>
       </c>
       <c r="C642">
@@ -26905,7 +26905,7 @@
       <c r="A643" s="1">
         <v>641</v>
       </c>
-      <c r="B643">
+      <c r="B643" s="4">
         <v>0</v>
       </c>
       <c r="C643">
@@ -26946,7 +26946,7 @@
       <c r="A644" s="1">
         <v>642</v>
       </c>
-      <c r="B644">
+      <c r="B644" s="4">
         <v>0</v>
       </c>
       <c r="C644">
@@ -26987,7 +26987,7 @@
       <c r="A645" s="1">
         <v>643</v>
       </c>
-      <c r="B645">
+      <c r="B645" s="4">
         <v>0</v>
       </c>
       <c r="C645">
@@ -27028,7 +27028,7 @@
       <c r="A646" s="1">
         <v>644</v>
       </c>
-      <c r="B646">
+      <c r="B646" s="4">
         <v>0</v>
       </c>
       <c r="C646">
@@ -27069,7 +27069,7 @@
       <c r="A647" s="1">
         <v>645</v>
       </c>
-      <c r="B647">
+      <c r="B647" s="4">
         <v>0</v>
       </c>
       <c r="C647">
@@ -27110,7 +27110,7 @@
       <c r="A648" s="1">
         <v>646</v>
       </c>
-      <c r="B648">
+      <c r="B648" s="4">
         <v>0</v>
       </c>
       <c r="C648">
@@ -27151,7 +27151,7 @@
       <c r="A649" s="1">
         <v>647</v>
       </c>
-      <c r="B649">
+      <c r="B649" s="4">
         <v>0</v>
       </c>
       <c r="C649">
@@ -27192,7 +27192,7 @@
       <c r="A650" s="1">
         <v>648</v>
       </c>
-      <c r="B650">
+      <c r="B650" s="4">
         <v>1</v>
       </c>
       <c r="C650">
@@ -27233,7 +27233,7 @@
       <c r="A651" s="1">
         <v>649</v>
       </c>
-      <c r="B651">
+      <c r="B651" s="4">
         <v>1</v>
       </c>
       <c r="C651">
@@ -27274,7 +27274,7 @@
       <c r="A652" s="1">
         <v>650</v>
       </c>
-      <c r="B652">
+      <c r="B652" s="4">
         <v>1</v>
       </c>
       <c r="C652">
@@ -27315,7 +27315,7 @@
       <c r="A653" s="1">
         <v>651</v>
       </c>
-      <c r="B653">
+      <c r="B653" s="4">
         <v>1</v>
       </c>
       <c r="C653">
@@ -27356,7 +27356,7 @@
       <c r="A654" s="1">
         <v>652</v>
       </c>
-      <c r="B654">
+      <c r="B654" s="4">
         <v>1</v>
       </c>
       <c r="C654">
@@ -27397,7 +27397,7 @@
       <c r="A655" s="1">
         <v>653</v>
       </c>
-      <c r="B655">
+      <c r="B655" s="4">
         <v>1</v>
       </c>
       <c r="C655">
@@ -27438,7 +27438,7 @@
       <c r="A656" s="1">
         <v>654</v>
       </c>
-      <c r="B656">
+      <c r="B656" s="4">
         <v>1</v>
       </c>
       <c r="C656">
@@ -27479,7 +27479,7 @@
       <c r="A657" s="1">
         <v>655</v>
       </c>
-      <c r="B657">
+      <c r="B657" s="4">
         <v>1</v>
       </c>
       <c r="C657">
@@ -27520,7 +27520,7 @@
       <c r="A658" s="1">
         <v>656</v>
       </c>
-      <c r="B658">
+      <c r="B658" s="4">
         <v>1</v>
       </c>
       <c r="C658">
@@ -27561,7 +27561,7 @@
       <c r="A659" s="1">
         <v>657</v>
       </c>
-      <c r="B659">
+      <c r="B659" s="4">
         <v>1</v>
       </c>
       <c r="C659">
@@ -27602,7 +27602,7 @@
       <c r="A660" s="1">
         <v>658</v>
       </c>
-      <c r="B660">
+      <c r="B660" s="4">
         <v>1</v>
       </c>
       <c r="C660">
@@ -27643,7 +27643,7 @@
       <c r="A661" s="1">
         <v>659</v>
       </c>
-      <c r="B661">
+      <c r="B661" s="4">
         <v>1</v>
       </c>
       <c r="C661">
@@ -27684,7 +27684,7 @@
       <c r="A662" s="1">
         <v>660</v>
       </c>
-      <c r="B662">
+      <c r="B662" s="4">
         <v>1</v>
       </c>
       <c r="C662">
@@ -27725,7 +27725,7 @@
       <c r="A663" s="1">
         <v>661</v>
       </c>
-      <c r="B663">
+      <c r="B663" s="4">
         <v>1</v>
       </c>
       <c r="C663">
@@ -27766,7 +27766,7 @@
       <c r="A664" s="1">
         <v>662</v>
       </c>
-      <c r="B664">
+      <c r="B664" s="4">
         <v>1</v>
       </c>
       <c r="C664">
@@ -27807,7 +27807,7 @@
       <c r="A665" s="1">
         <v>663</v>
       </c>
-      <c r="B665">
+      <c r="B665" s="4">
         <v>1</v>
       </c>
       <c r="C665">
@@ -27848,7 +27848,7 @@
       <c r="A666" s="1">
         <v>664</v>
       </c>
-      <c r="B666">
+      <c r="B666" s="4">
         <v>0</v>
       </c>
       <c r="C666">
@@ -27889,7 +27889,7 @@
       <c r="A667" s="1">
         <v>665</v>
       </c>
-      <c r="B667">
+      <c r="B667" s="4">
         <v>0</v>
       </c>
       <c r="C667">
@@ -27930,7 +27930,7 @@
       <c r="A668" s="1">
         <v>666</v>
       </c>
-      <c r="B668">
+      <c r="B668" s="4">
         <v>1</v>
       </c>
       <c r="C668">
@@ -27971,7 +27971,7 @@
       <c r="A669" s="1">
         <v>667</v>
       </c>
-      <c r="B669">
+      <c r="B669" s="4">
         <v>1</v>
       </c>
       <c r="C669">
@@ -28012,7 +28012,7 @@
       <c r="A670" s="1">
         <v>668</v>
       </c>
-      <c r="B670">
+      <c r="B670" s="4">
         <v>1</v>
       </c>
       <c r="C670">
@@ -28053,7 +28053,7 @@
       <c r="A671" s="1">
         <v>669</v>
       </c>
-      <c r="B671">
+      <c r="B671" s="4">
         <v>1</v>
       </c>
       <c r="C671">
@@ -28094,7 +28094,7 @@
       <c r="A672" s="1">
         <v>670</v>
       </c>
-      <c r="B672">
+      <c r="B672" s="4">
         <v>0</v>
       </c>
       <c r="C672">
@@ -28135,7 +28135,7 @@
       <c r="A673" s="1">
         <v>671</v>
       </c>
-      <c r="B673">
+      <c r="B673" s="4">
         <v>0</v>
       </c>
       <c r="C673">
@@ -28176,7 +28176,7 @@
       <c r="A674" s="1">
         <v>672</v>
       </c>
-      <c r="B674">
+      <c r="B674" s="4">
         <v>1</v>
       </c>
       <c r="C674">
@@ -28217,7 +28217,7 @@
       <c r="A675" s="1">
         <v>673</v>
       </c>
-      <c r="B675">
+      <c r="B675" s="4">
         <v>0</v>
       </c>
       <c r="C675">
@@ -28258,7 +28258,7 @@
       <c r="A676" s="1">
         <v>674</v>
       </c>
-      <c r="B676">
+      <c r="B676" s="4">
         <v>0</v>
       </c>
       <c r="C676">
@@ -28299,7 +28299,7 @@
       <c r="A677" s="1">
         <v>675</v>
       </c>
-      <c r="B677">
+      <c r="B677" s="4">
         <v>1</v>
       </c>
       <c r="C677">
@@ -28340,7 +28340,7 @@
       <c r="A678" s="1">
         <v>676</v>
       </c>
-      <c r="B678">
+      <c r="B678" s="4">
         <v>1</v>
       </c>
       <c r="C678">
@@ -28381,7 +28381,7 @@
       <c r="A679" s="1">
         <v>677</v>
       </c>
-      <c r="B679">
+      <c r="B679" s="4">
         <v>1</v>
       </c>
       <c r="C679">
@@ -28422,7 +28422,7 @@
       <c r="A680" s="1">
         <v>678</v>
       </c>
-      <c r="B680">
+      <c r="B680" s="4">
         <v>1</v>
       </c>
       <c r="C680">
@@ -28463,7 +28463,7 @@
       <c r="A681" s="1">
         <v>679</v>
       </c>
-      <c r="B681">
+      <c r="B681" s="4">
         <v>0</v>
       </c>
       <c r="C681">
@@ -28504,7 +28504,7 @@
       <c r="A682" s="1">
         <v>680</v>
       </c>
-      <c r="B682">
+      <c r="B682" s="4">
         <v>0</v>
       </c>
       <c r="C682">
@@ -28545,7 +28545,7 @@
       <c r="A683" s="1">
         <v>681</v>
       </c>
-      <c r="B683">
+      <c r="B683" s="4">
         <v>1</v>
       </c>
       <c r="C683">
@@ -28586,7 +28586,7 @@
       <c r="A684" s="1">
         <v>682</v>
       </c>
-      <c r="B684">
+      <c r="B684" s="4">
         <v>0</v>
       </c>
       <c r="C684">
@@ -28627,7 +28627,7 @@
       <c r="A685" s="1">
         <v>683</v>
       </c>
-      <c r="B685">
+      <c r="B685" s="4">
         <v>0</v>
       </c>
       <c r="C685">
@@ -28668,8 +28668,8 @@
       <c r="A686" s="1">
         <v>684</v>
       </c>
-      <c r="B686">
-        <v>1</v>
+      <c r="B686" s="4">
+        <v>0</v>
       </c>
       <c r="C686">
         <v>20</v>
@@ -28709,7 +28709,7 @@
       <c r="A687" s="1">
         <v>685</v>
       </c>
-      <c r="B687">
+      <c r="B687" s="4">
         <v>1</v>
       </c>
       <c r="C687">
@@ -28750,7 +28750,7 @@
       <c r="A688" s="1">
         <v>686</v>
       </c>
-      <c r="B688">
+      <c r="B688" s="4">
         <v>0</v>
       </c>
       <c r="C688">
@@ -28791,7 +28791,7 @@
       <c r="A689" s="1">
         <v>687</v>
       </c>
-      <c r="B689">
+      <c r="B689" s="4">
         <v>1</v>
       </c>
       <c r="C689">
@@ -28832,7 +28832,7 @@
       <c r="A690" s="1">
         <v>688</v>
       </c>
-      <c r="B690">
+      <c r="B690" s="4">
         <v>0</v>
       </c>
       <c r="C690">
@@ -28873,7 +28873,7 @@
       <c r="A691" s="1">
         <v>689</v>
       </c>
-      <c r="B691">
+      <c r="B691" s="4">
         <v>0</v>
       </c>
       <c r="C691">
@@ -28914,7 +28914,7 @@
       <c r="A692" s="1">
         <v>690</v>
       </c>
-      <c r="B692">
+      <c r="B692" s="4">
         <v>1</v>
       </c>
       <c r="C692">
@@ -28955,7 +28955,7 @@
       <c r="A693" s="1">
         <v>691</v>
       </c>
-      <c r="B693">
+      <c r="B693" s="4">
         <v>0</v>
       </c>
       <c r="C693">
@@ -28996,7 +28996,7 @@
       <c r="A694" s="1">
         <v>692</v>
       </c>
-      <c r="B694">
+      <c r="B694" s="4">
         <v>0</v>
       </c>
       <c r="C694">
@@ -29037,7 +29037,7 @@
       <c r="A695" s="1">
         <v>693</v>
       </c>
-      <c r="B695">
+      <c r="B695" s="4">
         <v>0</v>
       </c>
       <c r="C695">
@@ -29078,7 +29078,7 @@
       <c r="A696" s="1">
         <v>694</v>
       </c>
-      <c r="B696">
+      <c r="B696" s="4">
         <v>0</v>
       </c>
       <c r="C696">
@@ -29119,7 +29119,7 @@
       <c r="A697" s="1">
         <v>695</v>
       </c>
-      <c r="B697">
+      <c r="B697" s="4">
         <v>0</v>
       </c>
       <c r="C697">
@@ -29160,8 +29160,8 @@
       <c r="A698" s="1">
         <v>696</v>
       </c>
-      <c r="B698">
-        <v>1</v>
+      <c r="B698" s="4">
+        <v>0</v>
       </c>
       <c r="C698">
         <v>15</v>
@@ -29201,7 +29201,7 @@
       <c r="A699" s="1">
         <v>697</v>
       </c>
-      <c r="B699">
+      <c r="B699" s="4">
         <v>0</v>
       </c>
       <c r="C699">
@@ -29242,7 +29242,7 @@
       <c r="A700" s="1">
         <v>698</v>
       </c>
-      <c r="B700">
+      <c r="B700" s="4">
         <v>0</v>
       </c>
       <c r="C700">
@@ -29283,7 +29283,7 @@
       <c r="A701" s="1">
         <v>699</v>
       </c>
-      <c r="B701">
+      <c r="B701" s="4">
         <v>0</v>
       </c>
       <c r="C701">
@@ -29324,7 +29324,7 @@
       <c r="A702" s="1">
         <v>700</v>
       </c>
-      <c r="B702">
+      <c r="B702" s="4">
         <v>0</v>
       </c>
       <c r="C702">
@@ -29365,7 +29365,7 @@
       <c r="A703" s="1">
         <v>701</v>
       </c>
-      <c r="B703">
+      <c r="B703" s="4">
         <v>0</v>
       </c>
       <c r="C703">
@@ -29406,7 +29406,7 @@
       <c r="A704" s="1">
         <v>702</v>
       </c>
-      <c r="B704">
+      <c r="B704" s="4">
         <v>0</v>
       </c>
       <c r="C704">
@@ -29447,7 +29447,7 @@
       <c r="A705" s="1">
         <v>703</v>
       </c>
-      <c r="B705">
+      <c r="B705" s="4">
         <v>0</v>
       </c>
       <c r="C705">
@@ -29488,7 +29488,7 @@
       <c r="A706" s="1">
         <v>704</v>
       </c>
-      <c r="B706">
+      <c r="B706" s="4">
         <v>0</v>
       </c>
       <c r="C706">
@@ -29529,7 +29529,7 @@
       <c r="A707" s="1">
         <v>705</v>
       </c>
-      <c r="B707">
+      <c r="B707" s="4">
         <v>0</v>
       </c>
       <c r="C707">
@@ -29570,7 +29570,7 @@
       <c r="A708" s="1">
         <v>706</v>
       </c>
-      <c r="B708">
+      <c r="B708" s="4">
         <v>0</v>
       </c>
       <c r="C708">
@@ -29611,7 +29611,7 @@
       <c r="A709" s="1">
         <v>707</v>
       </c>
-      <c r="B709">
+      <c r="B709" s="4">
         <v>0</v>
       </c>
       <c r="C709">
@@ -29652,7 +29652,7 @@
       <c r="A710" s="1">
         <v>708</v>
       </c>
-      <c r="B710">
+      <c r="B710" s="4">
         <v>0</v>
       </c>
       <c r="C710">
@@ -29693,7 +29693,7 @@
       <c r="A711" s="1">
         <v>709</v>
       </c>
-      <c r="B711">
+      <c r="B711" s="4">
         <v>0</v>
       </c>
       <c r="C711">
@@ -29734,7 +29734,7 @@
       <c r="A712" s="1">
         <v>710</v>
       </c>
-      <c r="B712">
+      <c r="B712" s="4">
         <v>0</v>
       </c>
       <c r="C712">
@@ -29775,7 +29775,7 @@
       <c r="A713" s="1">
         <v>711</v>
       </c>
-      <c r="B713">
+      <c r="B713" s="4">
         <v>0</v>
       </c>
       <c r="C713">
@@ -29816,7 +29816,7 @@
       <c r="A714" s="1">
         <v>712</v>
       </c>
-      <c r="B714">
+      <c r="B714" s="4">
         <v>0</v>
       </c>
       <c r="C714">
@@ -29857,7 +29857,7 @@
       <c r="A715" s="1">
         <v>713</v>
       </c>
-      <c r="B715">
+      <c r="B715" s="4">
         <v>0</v>
       </c>
       <c r="C715">
@@ -29898,7 +29898,7 @@
       <c r="A716" s="1">
         <v>714</v>
       </c>
-      <c r="B716">
+      <c r="B716" s="4">
         <v>0</v>
       </c>
       <c r="C716">
@@ -29939,7 +29939,7 @@
       <c r="A717" s="1">
         <v>715</v>
       </c>
-      <c r="B717">
+      <c r="B717" s="4">
         <v>0</v>
       </c>
       <c r="C717">
@@ -29980,7 +29980,7 @@
       <c r="A718" s="1">
         <v>716</v>
       </c>
-      <c r="B718">
+      <c r="B718" s="4">
         <v>0</v>
       </c>
       <c r="C718">
@@ -30021,7 +30021,7 @@
       <c r="A719" s="1">
         <v>717</v>
       </c>
-      <c r="B719">
+      <c r="B719" s="4">
         <v>0</v>
       </c>
       <c r="C719">
@@ -30062,7 +30062,7 @@
       <c r="A720" s="1">
         <v>718</v>
       </c>
-      <c r="B720">
+      <c r="B720" s="4">
         <v>0</v>
       </c>
       <c r="C720">
@@ -30103,7 +30103,7 @@
       <c r="A721" s="1">
         <v>719</v>
       </c>
-      <c r="B721">
+      <c r="B721" s="4">
         <v>0</v>
       </c>
       <c r="C721">
@@ -30144,7 +30144,7 @@
       <c r="A722" s="1">
         <v>720</v>
       </c>
-      <c r="B722">
+      <c r="B722" s="4">
         <v>1</v>
       </c>
       <c r="C722">
@@ -30185,7 +30185,7 @@
       <c r="A723" s="1">
         <v>721</v>
       </c>
-      <c r="B723">
+      <c r="B723" s="4">
         <v>1</v>
       </c>
       <c r="C723">
@@ -30226,7 +30226,7 @@
       <c r="A724" s="1">
         <v>722</v>
       </c>
-      <c r="B724">
+      <c r="B724" s="4">
         <v>1</v>
       </c>
       <c r="C724">
@@ -30267,7 +30267,7 @@
       <c r="A725" s="1">
         <v>723</v>
       </c>
-      <c r="B725">
+      <c r="B725" s="4">
         <v>1</v>
       </c>
       <c r="C725">
@@ -30308,7 +30308,7 @@
       <c r="A726" s="1">
         <v>724</v>
       </c>
-      <c r="B726">
+      <c r="B726" s="4">
         <v>1</v>
       </c>
       <c r="C726">
@@ -30349,7 +30349,7 @@
       <c r="A727" s="1">
         <v>725</v>
       </c>
-      <c r="B727">
+      <c r="B727" s="4">
         <v>1</v>
       </c>
       <c r="C727">
@@ -30390,7 +30390,7 @@
       <c r="A728" s="1">
         <v>726</v>
       </c>
-      <c r="B728">
+      <c r="B728" s="4">
         <v>1</v>
       </c>
       <c r="C728">
@@ -30431,7 +30431,7 @@
       <c r="A729" s="1">
         <v>727</v>
       </c>
-      <c r="B729">
+      <c r="B729" s="4">
         <v>1</v>
       </c>
       <c r="C729">
@@ -30472,7 +30472,7 @@
       <c r="A730" s="1">
         <v>728</v>
       </c>
-      <c r="B730">
+      <c r="B730" s="4">
         <v>1</v>
       </c>
       <c r="C730">
@@ -30513,7 +30513,7 @@
       <c r="A731" s="1">
         <v>729</v>
       </c>
-      <c r="B731">
+      <c r="B731" s="4">
         <v>1</v>
       </c>
       <c r="C731">
@@ -30554,7 +30554,7 @@
       <c r="A732" s="1">
         <v>730</v>
       </c>
-      <c r="B732">
+      <c r="B732" s="4">
         <v>1</v>
       </c>
       <c r="C732">
@@ -30595,7 +30595,7 @@
       <c r="A733" s="1">
         <v>731</v>
       </c>
-      <c r="B733">
+      <c r="B733" s="4">
         <v>1</v>
       </c>
       <c r="C733">
@@ -30636,7 +30636,7 @@
       <c r="A734" s="1">
         <v>732</v>
       </c>
-      <c r="B734">
+      <c r="B734" s="4">
         <v>1</v>
       </c>
       <c r="C734">
@@ -30677,7 +30677,7 @@
       <c r="A735" s="1">
         <v>733</v>
       </c>
-      <c r="B735">
+      <c r="B735" s="4">
         <v>1</v>
       </c>
       <c r="C735">
@@ -30718,7 +30718,7 @@
       <c r="A736" s="1">
         <v>734</v>
       </c>
-      <c r="B736">
+      <c r="B736" s="4">
         <v>1</v>
       </c>
       <c r="C736">
@@ -30759,7 +30759,7 @@
       <c r="A737" s="1">
         <v>735</v>
       </c>
-      <c r="B737">
+      <c r="B737" s="4">
         <v>1</v>
       </c>
       <c r="C737">
@@ -30800,7 +30800,7 @@
       <c r="A738" s="1">
         <v>736</v>
       </c>
-      <c r="B738">
+      <c r="B738" s="4">
         <v>1</v>
       </c>
       <c r="C738">
@@ -30841,7 +30841,7 @@
       <c r="A739" s="1">
         <v>737</v>
       </c>
-      <c r="B739">
+      <c r="B739" s="4">
         <v>1</v>
       </c>
       <c r="C739">
@@ -30882,7 +30882,7 @@
       <c r="A740" s="1">
         <v>738</v>
       </c>
-      <c r="B740">
+      <c r="B740" s="4">
         <v>1</v>
       </c>
       <c r="C740">
@@ -30923,7 +30923,7 @@
       <c r="A741" s="1">
         <v>739</v>
       </c>
-      <c r="B741">
+      <c r="B741" s="4">
         <v>1</v>
       </c>
       <c r="C741">
@@ -30964,7 +30964,7 @@
       <c r="A742" s="1">
         <v>740</v>
       </c>
-      <c r="B742">
+      <c r="B742" s="4">
         <v>1</v>
       </c>
       <c r="C742">
@@ -31005,7 +31005,7 @@
       <c r="A743" s="1">
         <v>741</v>
       </c>
-      <c r="B743">
+      <c r="B743" s="4">
         <v>1</v>
       </c>
       <c r="C743">
@@ -31046,7 +31046,7 @@
       <c r="A744" s="1">
         <v>742</v>
       </c>
-      <c r="B744">
+      <c r="B744" s="4">
         <v>1</v>
       </c>
       <c r="C744">
@@ -31087,7 +31087,7 @@
       <c r="A745" s="1">
         <v>743</v>
       </c>
-      <c r="B745">
+      <c r="B745" s="4">
         <v>1</v>
       </c>
       <c r="C745">
@@ -31128,7 +31128,7 @@
       <c r="A746" s="1">
         <v>744</v>
       </c>
-      <c r="B746">
+      <c r="B746" s="4">
         <v>1</v>
       </c>
       <c r="C746">
@@ -31169,7 +31169,7 @@
       <c r="A747" s="1">
         <v>745</v>
       </c>
-      <c r="B747">
+      <c r="B747" s="4">
         <v>1</v>
       </c>
       <c r="C747">
@@ -31210,7 +31210,7 @@
       <c r="A748" s="1">
         <v>746</v>
       </c>
-      <c r="B748">
+      <c r="B748" s="4">
         <v>1</v>
       </c>
       <c r="C748">
@@ -31251,7 +31251,7 @@
       <c r="A749" s="1">
         <v>747</v>
       </c>
-      <c r="B749">
+      <c r="B749" s="4">
         <v>1</v>
       </c>
       <c r="C749">
@@ -31292,7 +31292,7 @@
       <c r="A750" s="1">
         <v>748</v>
       </c>
-      <c r="B750">
+      <c r="B750" s="4">
         <v>1</v>
       </c>
       <c r="C750">
@@ -31333,7 +31333,7 @@
       <c r="A751" s="1">
         <v>749</v>
       </c>
-      <c r="B751">
+      <c r="B751" s="4">
         <v>1</v>
       </c>
       <c r="C751">
@@ -31374,7 +31374,7 @@
       <c r="A752" s="1">
         <v>750</v>
       </c>
-      <c r="B752">
+      <c r="B752" s="4">
         <v>1</v>
       </c>
       <c r="C752">
@@ -31415,7 +31415,7 @@
       <c r="A753" s="1">
         <v>751</v>
       </c>
-      <c r="B753">
+      <c r="B753" s="4">
         <v>1</v>
       </c>
       <c r="C753">
@@ -31456,7 +31456,7 @@
       <c r="A754" s="1">
         <v>752</v>
       </c>
-      <c r="B754">
+      <c r="B754" s="4">
         <v>1</v>
       </c>
       <c r="C754">
@@ -31497,7 +31497,7 @@
       <c r="A755" s="1">
         <v>753</v>
       </c>
-      <c r="B755">
+      <c r="B755" s="4">
         <v>1</v>
       </c>
       <c r="C755">
@@ -31538,7 +31538,7 @@
       <c r="A756" s="1">
         <v>754</v>
       </c>
-      <c r="B756">
+      <c r="B756" s="4">
         <v>1</v>
       </c>
       <c r="C756">
@@ -31579,7 +31579,7 @@
       <c r="A757" s="1">
         <v>755</v>
       </c>
-      <c r="B757">
+      <c r="B757" s="4">
         <v>1</v>
       </c>
       <c r="C757">
@@ -31620,7 +31620,7 @@
       <c r="A758" s="1">
         <v>756</v>
       </c>
-      <c r="B758">
+      <c r="B758" s="4">
         <v>1</v>
       </c>
       <c r="C758">
@@ -31661,7 +31661,7 @@
       <c r="A759" s="1">
         <v>757</v>
       </c>
-      <c r="B759">
+      <c r="B759" s="4">
         <v>1</v>
       </c>
       <c r="C759">
@@ -31702,7 +31702,7 @@
       <c r="A760" s="1">
         <v>758</v>
       </c>
-      <c r="B760">
+      <c r="B760" s="4">
         <v>1</v>
       </c>
       <c r="C760">
@@ -31743,7 +31743,7 @@
       <c r="A761" s="1">
         <v>759</v>
       </c>
-      <c r="B761">
+      <c r="B761" s="4">
         <v>1</v>
       </c>
       <c r="C761">
@@ -31784,7 +31784,7 @@
       <c r="A762" s="1">
         <v>760</v>
       </c>
-      <c r="B762">
+      <c r="B762" s="4">
         <v>1</v>
       </c>
       <c r="C762">
@@ -31825,7 +31825,7 @@
       <c r="A763" s="1">
         <v>761</v>
       </c>
-      <c r="B763">
+      <c r="B763" s="4">
         <v>1</v>
       </c>
       <c r="C763">
@@ -31866,7 +31866,7 @@
       <c r="A764" s="1">
         <v>762</v>
       </c>
-      <c r="B764">
+      <c r="B764" s="4">
         <v>1</v>
       </c>
       <c r="C764">
@@ -31907,7 +31907,7 @@
       <c r="A765" s="1">
         <v>763</v>
       </c>
-      <c r="B765">
+      <c r="B765" s="4">
         <v>1</v>
       </c>
       <c r="C765">
@@ -31948,8 +31948,8 @@
       <c r="A766" s="1">
         <v>764</v>
       </c>
-      <c r="B766">
-        <v>0</v>
+      <c r="B766" s="4">
+        <v>1</v>
       </c>
       <c r="C766">
         <v>20</v>
@@ -31989,7 +31989,7 @@
       <c r="A767" s="1">
         <v>765</v>
       </c>
-      <c r="B767">
+      <c r="B767" s="4">
         <v>1</v>
       </c>
       <c r="C767">
@@ -32030,7 +32030,7 @@
       <c r="A768" s="1">
         <v>766</v>
       </c>
-      <c r="B768">
+      <c r="B768" s="4">
         <v>1</v>
       </c>
       <c r="C768">
@@ -32071,7 +32071,7 @@
       <c r="A769" s="1">
         <v>767</v>
       </c>
-      <c r="B769">
+      <c r="B769" s="4">
         <v>1</v>
       </c>
       <c r="C769">
@@ -32112,7 +32112,7 @@
       <c r="A770" s="1">
         <v>768</v>
       </c>
-      <c r="B770">
+      <c r="B770" s="4">
         <v>1</v>
       </c>
       <c r="C770">
@@ -32153,7 +32153,7 @@
       <c r="A771" s="1">
         <v>769</v>
       </c>
-      <c r="B771">
+      <c r="B771" s="4">
         <v>1</v>
       </c>
       <c r="C771">
@@ -32194,7 +32194,7 @@
       <c r="A772" s="1">
         <v>770</v>
       </c>
-      <c r="B772">
+      <c r="B772" s="4">
         <v>1</v>
       </c>
       <c r="C772">
@@ -32235,7 +32235,7 @@
       <c r="A773" s="1">
         <v>771</v>
       </c>
-      <c r="B773">
+      <c r="B773" s="4">
         <v>1</v>
       </c>
       <c r="C773">
@@ -32276,7 +32276,7 @@
       <c r="A774" s="1">
         <v>772</v>
       </c>
-      <c r="B774">
+      <c r="B774" s="4">
         <v>0</v>
       </c>
       <c r="C774">
@@ -32317,7 +32317,7 @@
       <c r="A775" s="1">
         <v>773</v>
       </c>
-      <c r="B775">
+      <c r="B775" s="4">
         <v>0</v>
       </c>
       <c r="C775">
@@ -32358,7 +32358,7 @@
       <c r="A776" s="1">
         <v>774</v>
       </c>
-      <c r="B776">
+      <c r="B776" s="4">
         <v>1</v>
       </c>
       <c r="C776">
@@ -32399,7 +32399,7 @@
       <c r="A777" s="1">
         <v>775</v>
       </c>
-      <c r="B777">
+      <c r="B777" s="4">
         <v>1</v>
       </c>
       <c r="C777">
@@ -32440,7 +32440,7 @@
       <c r="A778" s="1">
         <v>776</v>
       </c>
-      <c r="B778">
+      <c r="B778" s="4">
         <v>1</v>
       </c>
       <c r="C778">
@@ -32481,7 +32481,7 @@
       <c r="A779" s="1">
         <v>777</v>
       </c>
-      <c r="B779">
+      <c r="B779" s="4">
         <v>1</v>
       </c>
       <c r="C779">
@@ -32522,7 +32522,7 @@
       <c r="A780" s="1">
         <v>778</v>
       </c>
-      <c r="B780">
+      <c r="B780" s="4">
         <v>0</v>
       </c>
       <c r="C780">
@@ -32563,7 +32563,7 @@
       <c r="A781" s="1">
         <v>779</v>
       </c>
-      <c r="B781">
+      <c r="B781" s="4">
         <v>0</v>
       </c>
       <c r="C781">
@@ -32604,7 +32604,7 @@
       <c r="A782" s="1">
         <v>780</v>
       </c>
-      <c r="B782">
+      <c r="B782" s="4">
         <v>1</v>
       </c>
       <c r="C782">
@@ -32645,7 +32645,7 @@
       <c r="A783" s="1">
         <v>781</v>
       </c>
-      <c r="B783">
+      <c r="B783" s="4">
         <v>0</v>
       </c>
       <c r="C783">
@@ -32686,7 +32686,7 @@
       <c r="A784" s="1">
         <v>782</v>
       </c>
-      <c r="B784">
+      <c r="B784" s="4">
         <v>0</v>
       </c>
       <c r="C784">
@@ -32727,7 +32727,7 @@
       <c r="A785" s="1">
         <v>783</v>
       </c>
-      <c r="B785">
+      <c r="B785" s="4">
         <v>0</v>
       </c>
       <c r="C785">
@@ -32768,7 +32768,7 @@
       <c r="A786" s="1">
         <v>784</v>
       </c>
-      <c r="B786">
+      <c r="B786" s="4">
         <v>0</v>
       </c>
       <c r="C786">
@@ -32809,7 +32809,7 @@
       <c r="A787" s="1">
         <v>785</v>
       </c>
-      <c r="B787">
+      <c r="B787" s="4">
         <v>0</v>
       </c>
       <c r="C787">
@@ -32850,8 +32850,8 @@
       <c r="A788" s="1">
         <v>786</v>
       </c>
-      <c r="B788">
-        <v>1</v>
+      <c r="B788" s="4">
+        <v>0</v>
       </c>
       <c r="C788">
         <v>5</v>
@@ -32891,7 +32891,7 @@
       <c r="A789" s="1">
         <v>787</v>
       </c>
-      <c r="B789">
+      <c r="B789" s="4">
         <v>0</v>
       </c>
       <c r="C789">
@@ -32932,7 +32932,7 @@
       <c r="A790" s="1">
         <v>788</v>
       </c>
-      <c r="B790">
+      <c r="B790" s="4">
         <v>0</v>
       </c>
       <c r="C790">
@@ -32973,7 +32973,7 @@
       <c r="A791" s="1">
         <v>789</v>
       </c>
-      <c r="B791">
+      <c r="B791" s="4">
         <v>0</v>
       </c>
       <c r="C791">
@@ -33014,7 +33014,7 @@
       <c r="A792" s="1">
         <v>790</v>
       </c>
-      <c r="B792">
+      <c r="B792" s="4">
         <v>0</v>
       </c>
       <c r="C792">
@@ -33055,7 +33055,7 @@
       <c r="A793" s="1">
         <v>791</v>
       </c>
-      <c r="B793">
+      <c r="B793" s="4">
         <v>0</v>
       </c>
       <c r="C793">
@@ -33096,7 +33096,7 @@
       <c r="A794" s="1">
         <v>792</v>
       </c>
-      <c r="B794">
+      <c r="B794" s="4">
         <v>1</v>
       </c>
       <c r="C794">
@@ -33137,7 +33137,7 @@
       <c r="A795" s="1">
         <v>793</v>
       </c>
-      <c r="B795">
+      <c r="B795" s="4">
         <v>1</v>
       </c>
       <c r="C795">
@@ -33178,7 +33178,7 @@
       <c r="A796" s="1">
         <v>794</v>
       </c>
-      <c r="B796">
+      <c r="B796" s="4">
         <v>1</v>
       </c>
       <c r="C796">
@@ -33219,7 +33219,7 @@
       <c r="A797" s="1">
         <v>795</v>
       </c>
-      <c r="B797">
+      <c r="B797" s="4">
         <v>1</v>
       </c>
       <c r="C797">
@@ -33260,7 +33260,7 @@
       <c r="A798" s="1">
         <v>796</v>
       </c>
-      <c r="B798">
+      <c r="B798" s="4">
         <v>1</v>
       </c>
       <c r="C798">
@@ -33301,7 +33301,7 @@
       <c r="A799" s="1">
         <v>797</v>
       </c>
-      <c r="B799">
+      <c r="B799" s="4">
         <v>1</v>
       </c>
       <c r="C799">
@@ -33342,7 +33342,7 @@
       <c r="A800" s="1">
         <v>798</v>
       </c>
-      <c r="B800">
+      <c r="B800" s="4">
         <v>1</v>
       </c>
       <c r="C800">
@@ -33383,7 +33383,7 @@
       <c r="A801" s="1">
         <v>799</v>
       </c>
-      <c r="B801">
+      <c r="B801" s="4">
         <v>1</v>
       </c>
       <c r="C801">
@@ -33424,7 +33424,7 @@
       <c r="A802" s="1">
         <v>800</v>
       </c>
-      <c r="B802">
+      <c r="B802" s="4">
         <v>1</v>
       </c>
       <c r="C802">
@@ -33465,7 +33465,7 @@
       <c r="A803" s="1">
         <v>801</v>
       </c>
-      <c r="B803">
+      <c r="B803" s="4">
         <v>1</v>
       </c>
       <c r="C803">
@@ -33506,7 +33506,7 @@
       <c r="A804" s="1">
         <v>802</v>
       </c>
-      <c r="B804">
+      <c r="B804" s="4">
         <v>1</v>
       </c>
       <c r="C804">
@@ -33547,7 +33547,7 @@
       <c r="A805" s="1">
         <v>803</v>
       </c>
-      <c r="B805">
+      <c r="B805" s="4">
         <v>1</v>
       </c>
       <c r="C805">
@@ -33588,7 +33588,7 @@
       <c r="A806" s="1">
         <v>804</v>
       </c>
-      <c r="B806">
+      <c r="B806" s="4">
         <v>1</v>
       </c>
       <c r="C806">
@@ -33629,7 +33629,7 @@
       <c r="A807" s="1">
         <v>805</v>
       </c>
-      <c r="B807">
+      <c r="B807" s="4">
         <v>1</v>
       </c>
       <c r="C807">
@@ -33670,7 +33670,7 @@
       <c r="A808" s="1">
         <v>806</v>
       </c>
-      <c r="B808">
+      <c r="B808" s="4">
         <v>1</v>
       </c>
       <c r="C808">
@@ -33711,7 +33711,7 @@
       <c r="A809" s="1">
         <v>807</v>
       </c>
-      <c r="B809">
+      <c r="B809" s="4">
         <v>1</v>
       </c>
       <c r="C809">
@@ -33752,7 +33752,7 @@
       <c r="A810" s="1">
         <v>808</v>
       </c>
-      <c r="B810">
+      <c r="B810" s="4">
         <v>1</v>
       </c>
       <c r="C810">
@@ -33793,7 +33793,7 @@
       <c r="A811" s="1">
         <v>809</v>
       </c>
-      <c r="B811">
+      <c r="B811" s="4">
         <v>1</v>
       </c>
       <c r="C811">
@@ -33834,7 +33834,7 @@
       <c r="A812" s="1">
         <v>810</v>
       </c>
-      <c r="B812">
+      <c r="B812" s="4">
         <v>1</v>
       </c>
       <c r="C812">
@@ -33875,7 +33875,7 @@
       <c r="A813" s="1">
         <v>811</v>
       </c>
-      <c r="B813">
+      <c r="B813" s="4">
         <v>1</v>
       </c>
       <c r="C813">
@@ -33916,7 +33916,7 @@
       <c r="A814" s="1">
         <v>812</v>
       </c>
-      <c r="B814">
+      <c r="B814" s="4">
         <v>1</v>
       </c>
       <c r="C814">
@@ -33957,7 +33957,7 @@
       <c r="A815" s="1">
         <v>813</v>
       </c>
-      <c r="B815">
+      <c r="B815" s="4">
         <v>1</v>
       </c>
       <c r="C815">
@@ -33998,7 +33998,7 @@
       <c r="A816" s="1">
         <v>814</v>
       </c>
-      <c r="B816">
+      <c r="B816" s="4">
         <v>1</v>
       </c>
       <c r="C816">
@@ -34039,7 +34039,7 @@
       <c r="A817" s="1">
         <v>815</v>
       </c>
-      <c r="B817">
+      <c r="B817" s="4">
         <v>1</v>
       </c>
       <c r="C817">
@@ -34080,7 +34080,7 @@
       <c r="A818" s="1">
         <v>816</v>
       </c>
-      <c r="B818">
+      <c r="B818" s="4">
         <v>1</v>
       </c>
       <c r="C818">
@@ -34121,7 +34121,7 @@
       <c r="A819" s="1">
         <v>817</v>
       </c>
-      <c r="B819">
+      <c r="B819" s="4">
         <v>1</v>
       </c>
       <c r="C819">
@@ -34162,7 +34162,7 @@
       <c r="A820" s="1">
         <v>818</v>
       </c>
-      <c r="B820">
+      <c r="B820" s="4">
         <v>1</v>
       </c>
       <c r="C820">
@@ -34203,7 +34203,7 @@
       <c r="A821" s="1">
         <v>819</v>
       </c>
-      <c r="B821">
+      <c r="B821" s="4">
         <v>1</v>
       </c>
       <c r="C821">
@@ -34244,7 +34244,7 @@
       <c r="A822" s="1">
         <v>820</v>
       </c>
-      <c r="B822">
+      <c r="B822" s="4">
         <v>1</v>
       </c>
       <c r="C822">
@@ -34285,7 +34285,7 @@
       <c r="A823" s="1">
         <v>821</v>
       </c>
-      <c r="B823">
+      <c r="B823" s="4">
         <v>1</v>
       </c>
       <c r="C823">
@@ -34326,7 +34326,7 @@
       <c r="A824" s="1">
         <v>822</v>
       </c>
-      <c r="B824">
+      <c r="B824" s="4">
         <v>1</v>
       </c>
       <c r="C824">
@@ -34367,7 +34367,7 @@
       <c r="A825" s="1">
         <v>823</v>
       </c>
-      <c r="B825">
+      <c r="B825" s="4">
         <v>1</v>
       </c>
       <c r="C825">
@@ -34408,7 +34408,7 @@
       <c r="A826" s="1">
         <v>824</v>
       </c>
-      <c r="B826">
+      <c r="B826" s="4">
         <v>1</v>
       </c>
       <c r="C826">
@@ -34449,7 +34449,7 @@
       <c r="A827" s="1">
         <v>825</v>
       </c>
-      <c r="B827">
+      <c r="B827" s="4">
         <v>1</v>
       </c>
       <c r="C827">
@@ -34490,7 +34490,7 @@
       <c r="A828" s="1">
         <v>826</v>
       </c>
-      <c r="B828">
+      <c r="B828" s="4">
         <v>0</v>
       </c>
       <c r="C828">
@@ -34531,7 +34531,7 @@
       <c r="A829" s="1">
         <v>827</v>
       </c>
-      <c r="B829">
+      <c r="B829" s="4">
         <v>0</v>
       </c>
       <c r="C829">
@@ -34572,7 +34572,7 @@
       <c r="A830" s="1">
         <v>828</v>
       </c>
-      <c r="B830">
+      <c r="B830" s="4">
         <v>0</v>
       </c>
       <c r="C830">
@@ -34613,7 +34613,7 @@
       <c r="A831" s="1">
         <v>829</v>
       </c>
-      <c r="B831">
+      <c r="B831" s="4">
         <v>1</v>
       </c>
       <c r="C831">
@@ -34654,7 +34654,7 @@
       <c r="A832" s="1">
         <v>830</v>
       </c>
-      <c r="B832">
+      <c r="B832" s="4">
         <v>0</v>
       </c>
       <c r="C832">
@@ -34695,7 +34695,7 @@
       <c r="A833" s="1">
         <v>831</v>
       </c>
-      <c r="B833">
+      <c r="B833" s="4">
         <v>1</v>
       </c>
       <c r="C833">
@@ -34736,7 +34736,7 @@
       <c r="A834" s="1">
         <v>832</v>
       </c>
-      <c r="B834">
+      <c r="B834" s="4">
         <v>0</v>
       </c>
       <c r="C834">
@@ -34777,7 +34777,7 @@
       <c r="A835" s="1">
         <v>833</v>
       </c>
-      <c r="B835">
+      <c r="B835" s="4">
         <v>0</v>
       </c>
       <c r="C835">
@@ -34818,7 +34818,7 @@
       <c r="A836" s="1">
         <v>834</v>
       </c>
-      <c r="B836">
+      <c r="B836" s="4">
         <v>1</v>
       </c>
       <c r="C836">
@@ -34859,7 +34859,7 @@
       <c r="A837" s="1">
         <v>835</v>
       </c>
-      <c r="B837">
+      <c r="B837" s="4">
         <v>0</v>
       </c>
       <c r="C837">
@@ -34900,7 +34900,7 @@
       <c r="A838" s="1">
         <v>836</v>
       </c>
-      <c r="B838">
+      <c r="B838" s="4">
         <v>0</v>
       </c>
       <c r="C838">
@@ -34941,7 +34941,7 @@
       <c r="A839" s="1">
         <v>837</v>
       </c>
-      <c r="B839">
+      <c r="B839" s="4">
         <v>0</v>
       </c>
       <c r="C839">
@@ -34982,7 +34982,7 @@
       <c r="A840" s="1">
         <v>838</v>
       </c>
-      <c r="B840">
+      <c r="B840" s="4">
         <v>0</v>
       </c>
       <c r="C840">
@@ -35023,7 +35023,7 @@
       <c r="A841" s="1">
         <v>839</v>
       </c>
-      <c r="B841">
+      <c r="B841" s="4">
         <v>0</v>
       </c>
       <c r="C841">
@@ -35064,8 +35064,8 @@
       <c r="A842" s="1">
         <v>840</v>
       </c>
-      <c r="B842">
-        <v>1</v>
+      <c r="B842" s="4">
+        <v>0</v>
       </c>
       <c r="C842">
         <v>15</v>
@@ -35105,7 +35105,7 @@
       <c r="A843" s="1">
         <v>841</v>
       </c>
-      <c r="B843">
+      <c r="B843" s="4">
         <v>0</v>
       </c>
       <c r="C843">
@@ -35146,7 +35146,7 @@
       <c r="A844" s="1">
         <v>842</v>
       </c>
-      <c r="B844">
+      <c r="B844" s="4">
         <v>0</v>
       </c>
       <c r="C844">
@@ -35187,7 +35187,7 @@
       <c r="A845" s="1">
         <v>843</v>
       </c>
-      <c r="B845">
+      <c r="B845" s="4">
         <v>0</v>
       </c>
       <c r="C845">
@@ -35228,7 +35228,7 @@
       <c r="A846" s="1">
         <v>844</v>
       </c>
-      <c r="B846">
+      <c r="B846" s="4">
         <v>0</v>
       </c>
       <c r="C846">
@@ -35269,7 +35269,7 @@
       <c r="A847" s="1">
         <v>845</v>
       </c>
-      <c r="B847">
+      <c r="B847" s="4">
         <v>0</v>
       </c>
       <c r="C847">
@@ -35310,7 +35310,7 @@
       <c r="A848" s="1">
         <v>846</v>
       </c>
-      <c r="B848">
+      <c r="B848" s="4">
         <v>0</v>
       </c>
       <c r="C848">
@@ -35351,7 +35351,7 @@
       <c r="A849" s="1">
         <v>847</v>
       </c>
-      <c r="B849">
+      <c r="B849" s="4">
         <v>0</v>
       </c>
       <c r="C849">
@@ -35392,7 +35392,7 @@
       <c r="A850" s="1">
         <v>848</v>
       </c>
-      <c r="B850">
+      <c r="B850" s="4">
         <v>0</v>
       </c>
       <c r="C850">
@@ -35433,7 +35433,7 @@
       <c r="A851" s="1">
         <v>849</v>
       </c>
-      <c r="B851">
+      <c r="B851" s="4">
         <v>0</v>
       </c>
       <c r="C851">
@@ -35474,7 +35474,7 @@
       <c r="A852" s="1">
         <v>850</v>
       </c>
-      <c r="B852">
+      <c r="B852" s="4">
         <v>0</v>
       </c>
       <c r="C852">
@@ -35515,7 +35515,7 @@
       <c r="A853" s="1">
         <v>851</v>
       </c>
-      <c r="B853">
+      <c r="B853" s="4">
         <v>0</v>
       </c>
       <c r="C853">
@@ -35556,7 +35556,7 @@
       <c r="A854" s="1">
         <v>852</v>
       </c>
-      <c r="B854">
+      <c r="B854" s="4">
         <v>0</v>
       </c>
       <c r="C854">
@@ -35597,7 +35597,7 @@
       <c r="A855" s="1">
         <v>853</v>
       </c>
-      <c r="B855">
+      <c r="B855" s="4">
         <v>0</v>
       </c>
       <c r="C855">
@@ -35638,7 +35638,7 @@
       <c r="A856" s="1">
         <v>854</v>
       </c>
-      <c r="B856">
+      <c r="B856" s="4">
         <v>0</v>
       </c>
       <c r="C856">
@@ -35679,7 +35679,7 @@
       <c r="A857" s="1">
         <v>855</v>
       </c>
-      <c r="B857">
+      <c r="B857" s="4">
         <v>0</v>
       </c>
       <c r="C857">
@@ -35720,7 +35720,7 @@
       <c r="A858" s="1">
         <v>856</v>
       </c>
-      <c r="B858">
+      <c r="B858" s="4">
         <v>0</v>
       </c>
       <c r="C858">
@@ -35761,7 +35761,7 @@
       <c r="A859" s="1">
         <v>857</v>
       </c>
-      <c r="B859">
+      <c r="B859" s="4">
         <v>0</v>
       </c>
       <c r="C859">
@@ -35802,7 +35802,7 @@
       <c r="A860" s="1">
         <v>858</v>
       </c>
-      <c r="B860">
+      <c r="B860" s="4">
         <v>0</v>
       </c>
       <c r="C860">
@@ -35843,7 +35843,7 @@
       <c r="A861" s="1">
         <v>859</v>
       </c>
-      <c r="B861">
+      <c r="B861" s="4">
         <v>0</v>
       </c>
       <c r="C861">
@@ -35884,7 +35884,7 @@
       <c r="A862" s="1">
         <v>860</v>
       </c>
-      <c r="B862">
+      <c r="B862" s="4">
         <v>0</v>
       </c>
       <c r="C862">
@@ -35925,7 +35925,7 @@
       <c r="A863" s="1">
         <v>861</v>
       </c>
-      <c r="B863">
+      <c r="B863" s="4">
         <v>0</v>
       </c>
       <c r="C863">
@@ -35966,7 +35966,7 @@
       <c r="A864" s="1">
         <v>862</v>
       </c>
-      <c r="B864">
+      <c r="B864" s="4">
         <v>0</v>
       </c>
       <c r="C864">
@@ -36007,7 +36007,7 @@
       <c r="A865" s="1">
         <v>863</v>
       </c>
-      <c r="B865">
+      <c r="B865" s="4">
         <v>0</v>
       </c>
       <c r="C865">
